--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
   <si>
     <t>SEED</t>
   </si>
@@ -62,19 +62,28 @@
   </si>
   <si>
     <t>36326.3632</t>
+  </si>
+  <si>
+    <t>Params</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD5D5D5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,8 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,10 +124,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell2" displayName="Tabell2" ref="B3:G12" totalsRowShown="0">
-  <autoFilter ref="B3:G12"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell2" displayName="Tabell2" ref="B3:H12" totalsRowShown="0">
+  <autoFilter ref="B3:H12"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="SEED"/>
+    <tableColumn id="10" name="Params"/>
     <tableColumn id="2" name="TEST_ACC"/>
     <tableColumn id="3" name="TRAIN_ACC"/>
     <tableColumn id="4" name="EPOCHS"/>
@@ -147,10 +158,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabell28" displayName="Tabell28" ref="B19:G28" totalsRowShown="0">
-  <autoFilter ref="B19:G28"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabell217" displayName="Tabell217" ref="B19:H28" totalsRowShown="0">
+  <autoFilter ref="B19:H28"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="SEED"/>
+    <tableColumn id="10" name="Params"/>
     <tableColumn id="2" name="TEST_ACC"/>
     <tableColumn id="3" name="TRAIN_ACC"/>
     <tableColumn id="4" name="EPOCHS"/>
@@ -162,10 +174,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabell210" displayName="Tabell210" ref="B35:G44" totalsRowShown="0">
-  <autoFilter ref="B35:G44"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabell218" displayName="Tabell218" ref="B35:H44" totalsRowShown="0">
+  <autoFilter ref="B35:H44"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="SEED"/>
+    <tableColumn id="10" name="Params"/>
     <tableColumn id="2" name="TEST_ACC"/>
     <tableColumn id="3" name="TRAIN_ACC"/>
     <tableColumn id="4" name="EPOCHS"/>
@@ -177,10 +190,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:G13" totalsRowShown="0">
-  <autoFilter ref="B4:G13"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:H13" totalsRowShown="0">
+  <autoFilter ref="B4:H13"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="SEED"/>
+    <tableColumn id="10" name="Params"/>
     <tableColumn id="2" name="TEST_ACC"/>
     <tableColumn id="3" name="TRAIN_ACC"/>
     <tableColumn id="4" name="EPOCHS"/>
@@ -192,10 +206,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabell2812" displayName="Tabell2812" ref="B20:G29" totalsRowShown="0">
-  <autoFilter ref="B20:G29"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabell219" displayName="Tabell219" ref="B20:H29" totalsRowShown="0">
+  <autoFilter ref="B20:H29"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="SEED"/>
+    <tableColumn id="10" name="Params"/>
     <tableColumn id="2" name="TEST_ACC"/>
     <tableColumn id="3" name="TRAIN_ACC"/>
     <tableColumn id="4" name="EPOCHS"/>
@@ -207,10 +222,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabell21013" displayName="Tabell21013" ref="B36:G45" totalsRowShown="0">
-  <autoFilter ref="B36:G45"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabell220" displayName="Tabell220" ref="B36:H45" totalsRowShown="0">
+  <autoFilter ref="B36:H45"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="SEED"/>
+    <tableColumn id="10" name="Params"/>
     <tableColumn id="2" name="TEST_ACC"/>
     <tableColumn id="3" name="TRAIN_ACC"/>
     <tableColumn id="4" name="EPOCHS"/>
@@ -553,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G35"/>
+  <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H47" sqref="B2:H47"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,78 +587,87 @@
     <col min="8" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>4</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>4</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -658,10 +683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G36"/>
+  <dimension ref="B3:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,98 +699,111 @@
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>510558</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>63</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>3</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>4</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>3</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>4</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
   <si>
     <t>SEED</t>
   </si>
@@ -106,14 +106,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -190,16 +218,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:H13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:H13" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="B4:H13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="SEED"/>
-    <tableColumn id="10" name="Params"/>
-    <tableColumn id="2" name="TEST_ACC"/>
-    <tableColumn id="3" name="TRAIN_ACC"/>
-    <tableColumn id="4" name="EPOCHS"/>
-    <tableColumn id="5" name="EPOCH TIME"/>
-    <tableColumn id="6" name="TOTAL TIME"/>
+    <tableColumn id="1" name="SEED" dataDxfId="7"/>
+    <tableColumn id="10" name="Params" dataDxfId="6"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="5"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="4"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="3"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="2"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -238,10 +266,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabell21114" displayName="Tabell21114" ref="C5:H14" totalsRowShown="0">
-  <autoFilter ref="C5:H14"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabell21821" displayName="Tabell21821" ref="C5:I14" totalsRowShown="0">
+  <autoFilter ref="C5:I14"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="SEED"/>
+    <tableColumn id="10" name="Params"/>
     <tableColumn id="2" name="TEST_ACC"/>
     <tableColumn id="3" name="TRAIN_ACC"/>
     <tableColumn id="4" name="EPOCHS"/>
@@ -253,10 +282,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabell281215" displayName="Tabell281215" ref="C21:H30" totalsRowShown="0">
-  <autoFilter ref="C21:H30"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabell21822" displayName="Tabell21822" ref="C21:I30" totalsRowShown="0">
+  <autoFilter ref="C21:I30"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="SEED"/>
+    <tableColumn id="10" name="Params"/>
     <tableColumn id="2" name="TEST_ACC"/>
     <tableColumn id="3" name="TRAIN_ACC"/>
     <tableColumn id="4" name="EPOCHS"/>
@@ -268,10 +298,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabell2101316" displayName="Tabell2101316" ref="C37:H46" totalsRowShown="0">
-  <autoFilter ref="C37:H46"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabell21823" displayName="Tabell21823" ref="C37:I46" totalsRowShown="0">
+  <autoFilter ref="C37:I46"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="SEED"/>
+    <tableColumn id="10" name="Params"/>
     <tableColumn id="2" name="TEST_ACC"/>
     <tableColumn id="3" name="TRAIN_ACC"/>
     <tableColumn id="4" name="EPOCHS"/>
@@ -686,7 +717,7 @@
   <dimension ref="B3:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,8 +726,9 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -728,28 +760,104 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="2">
         <v>41</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>510558</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>63</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2">
+        <v>510558</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -820,86 +928,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:H37"/>
+  <dimension ref="C4:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>3</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>4</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
       <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>2</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>3</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>4</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="GATED" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
   <si>
     <t>SEED</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>Params</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>P100 kanske?</t>
+  </si>
+  <si>
+    <t>V100-SXM2</t>
+  </si>
+  <si>
+    <t>PATTERN</t>
+  </si>
+  <si>
+    <t>f-mean planar yadayada</t>
+  </si>
+  <si>
+    <t>epic spicy aggregation</t>
   </si>
 </sst>
 </file>
@@ -116,7 +134,64 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="27">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -218,9 +293,43 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:H13" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="B4:H13"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:I13" totalsRowShown="0" dataDxfId="19">
+  <autoFilter ref="B4:I13"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="SEED" dataDxfId="26"/>
+    <tableColumn id="10" name="Params" dataDxfId="25"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="24"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="23"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="22"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="21"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="20"/>
+    <tableColumn id="11" name="GPU" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabell21124" displayName="Tabell21124" ref="B20:I29" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="B20:I29"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="SEED" dataDxfId="16"/>
+    <tableColumn id="10" name="Params" dataDxfId="15"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="14"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="13"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="12"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="11"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="10"/>
+    <tableColumn id="11" name="GPU" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabell21125" displayName="Tabell21125" ref="B36:I45" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="B36:I45"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="SEED" dataDxfId="7"/>
     <tableColumn id="10" name="Params" dataDxfId="6"/>
     <tableColumn id="2" name="TEST_ACC" dataDxfId="5"/>
@@ -228,38 +337,7 @@
     <tableColumn id="4" name="EPOCHS" dataDxfId="3"/>
     <tableColumn id="5" name="EPOCH TIME" dataDxfId="2"/>
     <tableColumn id="6" name="TOTAL TIME" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabell219" displayName="Tabell219" ref="B20:H29" totalsRowShown="0">
-  <autoFilter ref="B20:H29"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="SEED"/>
-    <tableColumn id="10" name="Params"/>
-    <tableColumn id="2" name="TEST_ACC"/>
-    <tableColumn id="3" name="TRAIN_ACC"/>
-    <tableColumn id="4" name="EPOCHS"/>
-    <tableColumn id="5" name="EPOCH TIME"/>
-    <tableColumn id="6" name="TOTAL TIME"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabell220" displayName="Tabell220" ref="B36:H45" totalsRowShown="0">
-  <autoFilter ref="B36:H45"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="SEED"/>
-    <tableColumn id="10" name="Params"/>
-    <tableColumn id="2" name="TEST_ACC"/>
-    <tableColumn id="3" name="TRAIN_ACC"/>
-    <tableColumn id="4" name="EPOCHS"/>
-    <tableColumn id="5" name="EPOCH TIME"/>
-    <tableColumn id="6" name="TOTAL TIME"/>
+    <tableColumn id="11" name="GPU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +726,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -676,7 +754,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -714,29 +792,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L36"/>
+  <dimension ref="B1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -758,8 +863,11 @@
       <c r="H4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>41</v>
       </c>
@@ -781,9 +889,12 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>53</v>
       </c>
@@ -795,8 +906,11 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -804,8 +918,9 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -813,8 +928,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -822,8 +938,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -831,8 +948,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -840,8 +958,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -849,8 +968,9 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -858,13 +978,14 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -886,13 +1007,106 @@
       <c r="H20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -914,6 +1128,99 @@
       <c r="H36" t="s">
         <v>5</v>
       </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="20">
   <si>
     <t>SEED</t>
   </si>
@@ -37,19 +37,7 @@
     <t>TOTAL TIME</t>
   </si>
   <si>
-    <t>Kolumn7</t>
-  </si>
-  <si>
-    <t>Kolumn8</t>
-  </si>
-  <si>
-    <t>Kolumn9</t>
-  </si>
-  <si>
     <t>P-norm, info yada yada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-norm, clamp(1,100), abs, </t>
   </si>
   <si>
     <t>85.5032</t>
@@ -83,6 +71,12 @@
   </si>
   <si>
     <t>epic spicy aggregation</t>
+  </si>
+  <si>
+    <t>Layers</t>
+  </si>
+  <si>
+    <t>P-norm, clamp(1,100),  batch_size: 32</t>
   </si>
 </sst>
 </file>
@@ -134,7 +128,286 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="120">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -227,110 +500,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell2" displayName="Tabell2" ref="B3:H12" totalsRowShown="0">
-  <autoFilter ref="B3:H12"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="SEED"/>
-    <tableColumn id="10" name="Params"/>
-    <tableColumn id="2" name="TEST_ACC"/>
-    <tableColumn id="3" name="TRAIN_ACC"/>
-    <tableColumn id="4" name="EPOCHS"/>
-    <tableColumn id="5" name="EPOCH TIME"/>
-    <tableColumn id="6" name="TOTAL TIME"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabell2112427" displayName="Tabell2112427" ref="B3:J12" totalsRowShown="0" dataDxfId="89">
+  <autoFilter ref="B3:J12"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="88"/>
+    <tableColumn id="12" name="Layers" dataDxfId="87"/>
+    <tableColumn id="10" name="Params" dataDxfId="86"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="85"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="84"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="83"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="82"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="81"/>
+    <tableColumn id="11" name="GPU" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabell27" displayName="Tabell27" ref="A1:I44" totalsRowShown="0">
-  <autoFilter ref="A1:I44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tabell211243334" displayName="Tabell211243334" ref="B3:J12" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="B3:J12"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED"/>
-    <tableColumn id="2" name="TEST_ACC"/>
-    <tableColumn id="3" name="TRAIN_ACC"/>
-    <tableColumn id="4" name="EPOCHS"/>
-    <tableColumn id="5" name="EPOCH TIME"/>
-    <tableColumn id="6" name="TOTAL TIME"/>
-    <tableColumn id="7" name="Kolumn7"/>
-    <tableColumn id="8" name="Kolumn8"/>
-    <tableColumn id="9" name="Kolumn9"/>
+    <tableColumn id="1" name="SEED" dataDxfId="28"/>
+    <tableColumn id="12" name="Layers" dataDxfId="27"/>
+    <tableColumn id="10" name="Params" dataDxfId="26"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="25"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="24"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="23"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="22"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="21"/>
+    <tableColumn id="11" name="GPU" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabell217" displayName="Tabell217" ref="B19:H28" totalsRowShown="0">
-  <autoFilter ref="B19:H28"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="SEED"/>
-    <tableColumn id="10" name="Params"/>
-    <tableColumn id="2" name="TEST_ACC"/>
-    <tableColumn id="3" name="TRAIN_ACC"/>
-    <tableColumn id="4" name="EPOCHS"/>
-    <tableColumn id="5" name="EPOCH TIME"/>
-    <tableColumn id="6" name="TOTAL TIME"/>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Tabell211243335" displayName="Tabell211243335" ref="B19:J28" totalsRowShown="0" dataDxfId="19">
+  <autoFilter ref="B19:J28"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="18"/>
+    <tableColumn id="12" name="Layers" dataDxfId="17"/>
+    <tableColumn id="10" name="Params" dataDxfId="16"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="15"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="14"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="13"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="12"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="11"/>
+    <tableColumn id="11" name="GPU" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabell218" displayName="Tabell218" ref="B35:H44" totalsRowShown="0">
-  <autoFilter ref="B35:H44"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="SEED"/>
-    <tableColumn id="10" name="Params"/>
-    <tableColumn id="2" name="TEST_ACC"/>
-    <tableColumn id="3" name="TRAIN_ACC"/>
-    <tableColumn id="4" name="EPOCHS"/>
-    <tableColumn id="5" name="EPOCH TIME"/>
-    <tableColumn id="6" name="TOTAL TIME"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:I13" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="B4:I13"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="SEED" dataDxfId="26"/>
-    <tableColumn id="10" name="Params" dataDxfId="25"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="24"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="23"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="22"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="21"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="20"/>
-    <tableColumn id="11" name="GPU" dataDxfId="18"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabell21124" displayName="Tabell21124" ref="B20:I29" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="B20:I29"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="SEED" dataDxfId="16"/>
-    <tableColumn id="10" name="Params" dataDxfId="15"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="14"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="13"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="12"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="11"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="10"/>
-    <tableColumn id="11" name="GPU" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabell21125" displayName="Tabell21125" ref="B36:I45" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="B36:I45"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="SEED" dataDxfId="7"/>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tabell211243336" displayName="Tabell211243336" ref="B36:J45" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="B36:J45"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="8"/>
+    <tableColumn id="12" name="Layers" dataDxfId="7"/>
     <tableColumn id="10" name="Params" dataDxfId="6"/>
     <tableColumn id="2" name="TEST_ACC" dataDxfId="5"/>
     <tableColumn id="3" name="TRAIN_ACC" dataDxfId="4"/>
@@ -343,49 +571,145 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabell2112428" displayName="Tabell2112428" ref="B19:J28" totalsRowShown="0" dataDxfId="79">
+  <autoFilter ref="B19:J28"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="78"/>
+    <tableColumn id="12" name="Layers" dataDxfId="77"/>
+    <tableColumn id="10" name="Params" dataDxfId="76"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="75"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="74"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="73"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="72"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="71"/>
+    <tableColumn id="11" name="GPU" dataDxfId="70"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabell2112429" displayName="Tabell2112429" ref="B35:J44" totalsRowShown="0" dataDxfId="69">
+  <autoFilter ref="B35:J44"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="68"/>
+    <tableColumn id="12" name="Layers" dataDxfId="67"/>
+    <tableColumn id="10" name="Params" dataDxfId="66"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="65"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="64"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="63"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="62"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="61"/>
+    <tableColumn id="11" name="GPU" dataDxfId="60"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:J13" totalsRowShown="0" dataDxfId="112">
+  <autoFilter ref="B4:J13"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="119"/>
+    <tableColumn id="12" name="Layers" dataDxfId="101"/>
+    <tableColumn id="10" name="Params" dataDxfId="118"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="117"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="116"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="115"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="114"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="113"/>
+    <tableColumn id="11" name="GPU" dataDxfId="111"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="110">
+  <autoFilter ref="B20:J29"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="109"/>
+    <tableColumn id="12" name="Layers" dataDxfId="100"/>
+    <tableColumn id="10" name="Params" dataDxfId="108"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="107"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="106"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="105"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="104"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="103"/>
+    <tableColumn id="11" name="GPU" dataDxfId="102"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="99">
+  <autoFilter ref="B36:J45"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="98"/>
+    <tableColumn id="12" name="Layers" dataDxfId="97"/>
+    <tableColumn id="10" name="Params" dataDxfId="96"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="95"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="94"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="93"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="92"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="91"/>
+    <tableColumn id="11" name="GPU" dataDxfId="90"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabell21821" displayName="Tabell21821" ref="C5:I14" totalsRowShown="0">
-  <autoFilter ref="C5:I14"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="SEED"/>
-    <tableColumn id="10" name="Params"/>
-    <tableColumn id="2" name="TEST_ACC"/>
-    <tableColumn id="3" name="TRAIN_ACC"/>
-    <tableColumn id="4" name="EPOCHS"/>
-    <tableColumn id="5" name="EPOCH TIME"/>
-    <tableColumn id="6" name="TOTAL TIME"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="59">
+  <autoFilter ref="C5:K14"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="58"/>
+    <tableColumn id="12" name="Layers" dataDxfId="57"/>
+    <tableColumn id="10" name="Params" dataDxfId="56"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="55"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="54"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="53"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="52"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="51"/>
+    <tableColumn id="11" name="GPU" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabell21822" displayName="Tabell21822" ref="C21:I30" totalsRowShown="0">
-  <autoFilter ref="C21:I30"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="SEED"/>
-    <tableColumn id="10" name="Params"/>
-    <tableColumn id="2" name="TEST_ACC"/>
-    <tableColumn id="3" name="TRAIN_ACC"/>
-    <tableColumn id="4" name="EPOCHS"/>
-    <tableColumn id="5" name="EPOCH TIME"/>
-    <tableColumn id="6" name="TOTAL TIME"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="49">
+  <autoFilter ref="C21:K30"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="48"/>
+    <tableColumn id="12" name="Layers" dataDxfId="47"/>
+    <tableColumn id="10" name="Params" dataDxfId="46"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="45"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="44"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="43"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="42"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="41"/>
+    <tableColumn id="11" name="GPU" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabell21823" displayName="Tabell21823" ref="C37:I46" totalsRowShown="0">
-  <autoFilter ref="C37:I46"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="SEED"/>
-    <tableColumn id="10" name="Params"/>
-    <tableColumn id="2" name="TEST_ACC"/>
-    <tableColumn id="3" name="TRAIN_ACC"/>
-    <tableColumn id="4" name="EPOCHS"/>
-    <tableColumn id="5" name="EPOCH TIME"/>
-    <tableColumn id="6" name="TOTAL TIME"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="39">
+  <autoFilter ref="C37:K46"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="38"/>
+    <tableColumn id="12" name="Layers" dataDxfId="37"/>
+    <tableColumn id="10" name="Params" dataDxfId="36"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="35"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="34"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="33"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="32"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="31"/>
+    <tableColumn id="11" name="GPU" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -678,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H35"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,92 +1017,414 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>3</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>4</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>2</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>3</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>4</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>5</v>
       </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -792,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M45"/>
+  <dimension ref="B1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,112 +1451,122 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>41</v>
       </c>
       <c r="C5" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
         <v>510558</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
         <v>63</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>53</v>
       </c>
       <c r="C6" s="2">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
         <v>510558</v>
       </c>
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -919,8 +1575,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -929,8 +1586,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -939,8 +1597,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -949,8 +1608,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -959,8 +1619,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -969,8 +1630,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -979,39 +1641,43 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>2</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>3</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>4</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>5</v>
       </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1020,8 +1686,9 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1030,8 +1697,9 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1040,8 +1708,9 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1050,8 +1719,9 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1060,8 +1730,9 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1070,8 +1741,9 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1080,8 +1752,9 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1090,8 +1763,9 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1100,39 +1774,43 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>2</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>3</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>4</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>5</v>
       </c>
-      <c r="I36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1141,8 +1819,9 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1151,8 +1830,9 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1161,8 +1841,9 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1171,8 +1852,9 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1181,8 +1863,9 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1191,8 +1874,9 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1201,8 +1885,9 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1211,8 +1896,9 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1221,6 +1907,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1235,97 +1922,412 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:I37"/>
+  <dimension ref="C4:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>2</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>3</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>4</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>2</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>3</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>4</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>5</v>
       </c>
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1339,47 +2341,404 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="B3:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GATED" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
   <si>
     <t>SEED</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>P-norm, clamp(1,100),  batch_size: 32</t>
+  </si>
+  <si>
+    <t>85.5505</t>
+  </si>
+  <si>
+    <t>85.8073</t>
+  </si>
+  <si>
+    <t>476.2562</t>
+  </si>
+  <si>
+    <t>31133.6220</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1440,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,11 +1569,21 @@
       <c r="D6" s="2">
         <v>510558</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>14</v>
       </c>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="24">
   <si>
     <t>SEED</t>
   </si>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,7 +1589,9 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>76</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1597,7 +1599,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="28">
   <si>
     <t>SEED</t>
   </si>
@@ -90,6 +90,18 @@
   <si>
     <t>31133.6220</t>
   </si>
+  <si>
+    <t>85.2293</t>
+  </si>
+  <si>
+    <t>85.6459</t>
+  </si>
+  <si>
+    <t>462.1258</t>
+  </si>
+  <si>
+    <t>23745.9871</t>
+  </si>
 </sst>
 </file>
 
@@ -512,18 +524,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabell2112427" displayName="Tabell2112427" ref="B3:J12" totalsRowShown="0" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabell2112427" displayName="Tabell2112427" ref="B3:J12" totalsRowShown="0" dataDxfId="119">
   <autoFilter ref="B3:J12"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="88"/>
-    <tableColumn id="12" name="Layers" dataDxfId="87"/>
-    <tableColumn id="10" name="Params" dataDxfId="86"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="85"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="84"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="83"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="82"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="81"/>
-    <tableColumn id="11" name="GPU" dataDxfId="80"/>
+    <tableColumn id="1" name="SEED" dataDxfId="118"/>
+    <tableColumn id="12" name="Layers" dataDxfId="117"/>
+    <tableColumn id="10" name="Params" dataDxfId="116"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="115"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="114"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="113"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="112"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="111"/>
+    <tableColumn id="11" name="GPU" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -584,8 +596,62 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabell2112428" displayName="Tabell2112428" ref="B19:J28" totalsRowShown="0" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabell2112428" displayName="Tabell2112428" ref="B19:J28" totalsRowShown="0" dataDxfId="109">
   <autoFilter ref="B19:J28"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="108"/>
+    <tableColumn id="12" name="Layers" dataDxfId="107"/>
+    <tableColumn id="10" name="Params" dataDxfId="106"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="105"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="104"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="103"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="102"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="101"/>
+    <tableColumn id="11" name="GPU" dataDxfId="100"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabell2112429" displayName="Tabell2112429" ref="B35:J44" totalsRowShown="0" dataDxfId="99">
+  <autoFilter ref="B35:J44"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="98"/>
+    <tableColumn id="12" name="Layers" dataDxfId="97"/>
+    <tableColumn id="10" name="Params" dataDxfId="96"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="95"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="94"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="93"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="92"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="91"/>
+    <tableColumn id="11" name="GPU" dataDxfId="90"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:J13" totalsRowShown="0" dataDxfId="89">
+  <autoFilter ref="B4:J13"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="88"/>
+    <tableColumn id="12" name="Layers" dataDxfId="87"/>
+    <tableColumn id="10" name="Params" dataDxfId="86"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="85"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="84"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="83"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="82"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="81"/>
+    <tableColumn id="11" name="GPU" dataDxfId="80"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="79">
+  <autoFilter ref="B20:J29"/>
   <tableColumns count="9">
     <tableColumn id="1" name="SEED" dataDxfId="78"/>
     <tableColumn id="12" name="Layers" dataDxfId="77"/>
@@ -601,9 +667,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabell2112429" displayName="Tabell2112429" ref="B35:J44" totalsRowShown="0" dataDxfId="69">
-  <autoFilter ref="B35:J44"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="69">
+  <autoFilter ref="B36:J45"/>
   <tableColumns count="9">
     <tableColumn id="1" name="SEED" dataDxfId="68"/>
     <tableColumn id="12" name="Layers" dataDxfId="67"/>
@@ -614,60 +680,6 @@
     <tableColumn id="5" name="EPOCH TIME" dataDxfId="62"/>
     <tableColumn id="6" name="TOTAL TIME" dataDxfId="61"/>
     <tableColumn id="11" name="GPU" dataDxfId="60"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:J13" totalsRowShown="0" dataDxfId="112">
-  <autoFilter ref="B4:J13"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="119"/>
-    <tableColumn id="12" name="Layers" dataDxfId="101"/>
-    <tableColumn id="10" name="Params" dataDxfId="118"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="117"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="116"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="115"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="114"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="113"/>
-    <tableColumn id="11" name="GPU" dataDxfId="111"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="110">
-  <autoFilter ref="B20:J29"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="109"/>
-    <tableColumn id="12" name="Layers" dataDxfId="100"/>
-    <tableColumn id="10" name="Params" dataDxfId="108"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="107"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="106"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="105"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="104"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="103"/>
-    <tableColumn id="11" name="GPU" dataDxfId="102"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="99">
-  <autoFilter ref="B36:J45"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="98"/>
-    <tableColumn id="12" name="Layers" dataDxfId="97"/>
-    <tableColumn id="10" name="Params" dataDxfId="96"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="95"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="94"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="93"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="92"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="91"/>
-    <tableColumn id="11" name="GPU" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1453,7 +1465,7 @@
   <dimension ref="B1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,13 +1604,27 @@
       <c r="B7" s="2">
         <v>76</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="C7" s="2">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>510558</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>14</v>
       </c>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="29">
   <si>
     <t>SEED</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>23745.9871</t>
+  </si>
+  <si>
+    <t>P100-PCIE</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1468,7 @@
   <dimension ref="B1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1633,9 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>12</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1638,7 +1643,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -12,12 +12,12 @@
     <sheet name="GAT" sheetId="3" r:id="rId3"/>
     <sheet name="SAGE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="23">
   <si>
     <t>SEED</t>
   </si>
@@ -40,12 +40,6 @@
     <t>P-norm, info yada yada</t>
   </si>
   <si>
-    <t>85.5032</t>
-  </si>
-  <si>
-    <t>86.0147</t>
-  </si>
-  <si>
     <t>564.7826</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
   </si>
   <si>
     <t>GPU</t>
-  </si>
-  <si>
-    <t>P100 kanske?</t>
   </si>
   <si>
     <t>V100-SXM2</t>
@@ -79,22 +70,10 @@
     <t>P-norm, clamp(1,100),  batch_size: 32</t>
   </si>
   <si>
-    <t>85.5505</t>
-  </si>
-  <si>
-    <t>85.8073</t>
-  </si>
-  <si>
     <t>476.2562</t>
   </si>
   <si>
     <t>31133.6220</t>
-  </si>
-  <si>
-    <t>85.2293</t>
-  </si>
-  <si>
-    <t>85.6459</t>
   </si>
   <si>
     <t>462.1258</t>
@@ -105,11 +84,17 @@
   <si>
     <t>P100-PCIE</t>
   </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,12 +110,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,12 +136,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,8 +630,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:J13" totalsRowShown="0" dataDxfId="89">
-  <autoFilter ref="B4:J13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="89">
+  <autoFilter ref="B4:J11"/>
   <tableColumns count="9">
     <tableColumn id="1" name="SEED" dataDxfId="88"/>
     <tableColumn id="12" name="Layers" dataDxfId="87"/>
@@ -1051,7 +1046,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1064,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -1085,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1189,7 +1184,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1197,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -1218,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1322,7 +1317,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -1330,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
         <v>1</v>
@@ -1351,7 +1346,7 @@
         <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -1465,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,46 +1479,46 @@
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -1541,10 +1536,10 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>41</v>
       </c>
@@ -1554,27 +1549,27 @@
       <c r="D5" s="2">
         <v>510558</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
+      <c r="E5" s="3">
+        <v>85.503200000000007</v>
+      </c>
+      <c r="F5" s="2">
+        <v>86.014700000000005</v>
       </c>
       <c r="G5" s="2">
         <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>53</v>
       </c>
@@ -1584,26 +1579,26 @@
       <c r="D6" s="2">
         <v>510558</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
+      <c r="E6" s="3">
+        <v>85.5505</v>
+      </c>
+      <c r="F6" s="2">
+        <v>85.807299999999998</v>
       </c>
       <c r="G6" s="2">
         <v>64</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>76</v>
       </c>
@@ -1613,26 +1608,26 @@
       <c r="D7" s="2">
         <v>510558</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
+      <c r="E7" s="3">
+        <v>85.229299999999995</v>
+      </c>
+      <c r="F7" s="2">
+        <v>85.645899999999997</v>
       </c>
       <c r="G7" s="2">
         <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>12</v>
       </c>
@@ -1644,10 +1639,10 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1658,29 +1653,44 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <f>SUBTOTAL(101,E5:E8)</f>
+        <v>85.427666666666667</v>
+      </c>
+      <c r="F10" s="2">
+        <f>SUBTOTAL(101,F5:F8)</f>
+        <v>85.822633333333329</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2">
+        <f>STDEV(E5:E8)</f>
+        <v>0.17341085125601219</v>
+      </c>
+      <c r="F11" s="2">
+        <f>STDEV(F5:F8)</f>
+        <v>0.18487750899807889</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1691,14 +1701,16 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>444</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
@@ -1712,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
@@ -1733,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1845,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -1866,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -1999,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -2020,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
@@ -2132,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>1</v>
@@ -2153,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
@@ -2265,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>1</v>
@@ -2286,7 +2298,7 @@
         <v>5</v>
       </c>
       <c r="K37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
@@ -2413,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -2434,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -2541,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -2562,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -2669,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -2690,7 +2702,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,13 +1631,27 @@
       <c r="B8" s="2">
         <v>12</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="C8" s="2">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>510558</v>
+      </c>
+      <c r="E8" s="2">
+        <v>85.462599999999995</v>
+      </c>
+      <c r="F8" s="2">
+        <v>86.2697</v>
+      </c>
+      <c r="G8" s="2">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2">
+        <v>566.55330000000004</v>
+      </c>
+      <c r="I8" s="2">
+        <v>27939.581600000001</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1662,11 +1676,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <f>SUBTOTAL(101,E5:E8)</f>
-        <v>85.427666666666667</v>
+        <v>85.436400000000006</v>
       </c>
       <c r="F10" s="2">
         <f>SUBTOTAL(101,F5:F8)</f>
-        <v>85.822633333333329</v>
+        <v>85.934399999999997</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1679,11 +1693,11 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <f>STDEV(E5:E8)</f>
-        <v>0.17341085125601219</v>
+        <v>0.14266265570686046</v>
       </c>
       <c r="F11" s="2">
         <f>STDEV(F5:F8)</f>
-        <v>0.18487750899807889</v>
+        <v>0.2697287773548353</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -67,9 +67,6 @@
     <t>Layers</t>
   </si>
   <si>
-    <t>P-norm, clamp(1,100),  batch_size: 32</t>
-  </si>
-  <si>
     <t>476.2562</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>P-norm, clamp(1,100),  batch_size: 32, Inget alpha</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -1589,10 +1589,10 @@
         <v>64</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>11</v>
@@ -1618,10 +1618,10 @@
         <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>11</v>
@@ -1653,7 +1653,7 @@
         <v>27939.581600000001</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GATED" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="23">
   <si>
     <t>SEED</t>
   </si>
@@ -95,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,12 @@
       <sz val="11"/>
       <color rgb="FFD5D5D5"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -136,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -146,71 +152,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="100">
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -522,62 +471,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabell2112427" displayName="Tabell2112427" ref="B3:J12" totalsRowShown="0" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabell2112427" displayName="Tabell2112427" ref="B3:J12" totalsRowShown="0" dataDxfId="99">
   <autoFilter ref="B3:J12"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="118"/>
-    <tableColumn id="12" name="Layers" dataDxfId="117"/>
-    <tableColumn id="10" name="Params" dataDxfId="116"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="115"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="114"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="113"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="112"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="111"/>
-    <tableColumn id="11" name="GPU" dataDxfId="110"/>
+    <tableColumn id="1" name="SEED" dataDxfId="98"/>
+    <tableColumn id="12" name="Layers" dataDxfId="97"/>
+    <tableColumn id="10" name="Params" dataDxfId="96"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="95"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="94"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="93"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="92"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="91"/>
+    <tableColumn id="11" name="GPU" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tabell211243334" displayName="Tabell211243334" ref="B3:J12" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="B3:J12"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="28"/>
-    <tableColumn id="12" name="Layers" dataDxfId="27"/>
-    <tableColumn id="10" name="Params" dataDxfId="26"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="25"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="24"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="23"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="22"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="21"/>
-    <tableColumn id="11" name="GPU" dataDxfId="20"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Tabell211243335" displayName="Tabell211243335" ref="B19:J28" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="B19:J28"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="18"/>
-    <tableColumn id="12" name="Layers" dataDxfId="17"/>
-    <tableColumn id="10" name="Params" dataDxfId="16"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="15"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="14"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="13"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="12"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="11"/>
-    <tableColumn id="11" name="GPU" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tabell211243336" displayName="Tabell211243336" ref="B36:J45" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="B36:J45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="B4:J11"/>
   <tableColumns count="9">
     <tableColumn id="1" name="SEED" dataDxfId="8"/>
     <tableColumn id="12" name="Layers" dataDxfId="7"/>
@@ -594,44 +507,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabell2112428" displayName="Tabell2112428" ref="B19:J28" totalsRowShown="0" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabell2112428" displayName="Tabell2112428" ref="B19:J28" totalsRowShown="0" dataDxfId="89">
   <autoFilter ref="B19:J28"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="108"/>
-    <tableColumn id="12" name="Layers" dataDxfId="107"/>
-    <tableColumn id="10" name="Params" dataDxfId="106"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="105"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="104"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="103"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="102"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="101"/>
-    <tableColumn id="11" name="GPU" dataDxfId="100"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabell2112429" displayName="Tabell2112429" ref="B35:J44" totalsRowShown="0" dataDxfId="99">
-  <autoFilter ref="B35:J44"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="98"/>
-    <tableColumn id="12" name="Layers" dataDxfId="97"/>
-    <tableColumn id="10" name="Params" dataDxfId="96"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="95"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="94"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="93"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="92"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="91"/>
-    <tableColumn id="11" name="GPU" dataDxfId="90"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="89">
-  <autoFilter ref="B4:J11"/>
   <tableColumns count="9">
     <tableColumn id="1" name="SEED" dataDxfId="88"/>
     <tableColumn id="12" name="Layers" dataDxfId="87"/>
@@ -647,9 +524,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="79">
-  <autoFilter ref="B20:J29"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabell2112429" displayName="Tabell2112429" ref="B35:J44" totalsRowShown="0" dataDxfId="79">
+  <autoFilter ref="B35:J44"/>
   <tableColumns count="9">
     <tableColumn id="1" name="SEED" dataDxfId="78"/>
     <tableColumn id="12" name="Layers" dataDxfId="77"/>
@@ -665,9 +542,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="69">
-  <autoFilter ref="B36:J45"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="69">
+  <autoFilter ref="B4:J11"/>
   <tableColumns count="9">
     <tableColumn id="1" name="SEED" dataDxfId="68"/>
     <tableColumn id="12" name="Layers" dataDxfId="67"/>
@@ -683,9 +560,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="59">
-  <autoFilter ref="C5:K14"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="59">
+  <autoFilter ref="B20:J29"/>
   <tableColumns count="9">
     <tableColumn id="1" name="SEED" dataDxfId="58"/>
     <tableColumn id="12" name="Layers" dataDxfId="57"/>
@@ -701,9 +578,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="49">
-  <autoFilter ref="C21:K30"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="49">
+  <autoFilter ref="B36:J45"/>
   <tableColumns count="9">
     <tableColumn id="1" name="SEED" dataDxfId="48"/>
     <tableColumn id="12" name="Layers" dataDxfId="47"/>
@@ -719,9 +596,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="39">
-  <autoFilter ref="C37:K46"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="39">
+  <autoFilter ref="C5:K14"/>
   <tableColumns count="9">
     <tableColumn id="1" name="SEED" dataDxfId="38"/>
     <tableColumn id="12" name="Layers" dataDxfId="37"/>
@@ -732,6 +609,42 @@
     <tableColumn id="5" name="EPOCH TIME" dataDxfId="32"/>
     <tableColumn id="6" name="TOTAL TIME" dataDxfId="31"/>
     <tableColumn id="11" name="GPU" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="C21:K30"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="28"/>
+    <tableColumn id="12" name="Layers" dataDxfId="27"/>
+    <tableColumn id="10" name="Params" dataDxfId="26"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="25"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="24"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="23"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="22"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="21"/>
+    <tableColumn id="11" name="GPU" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="19">
+  <autoFilter ref="C37:K46"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="18"/>
+    <tableColumn id="12" name="Layers" dataDxfId="17"/>
+    <tableColumn id="10" name="Params" dataDxfId="16"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="15"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="14"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="13"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="12"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="11"/>
+    <tableColumn id="11" name="GPU" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1462,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,9 +1635,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>444</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
@@ -2426,89 +2337,165 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>69699</v>
+      </c>
+      <c r="E5" s="3">
+        <v>67.821100000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>69.589699999999993</v>
+      </c>
+      <c r="G5" s="2">
+        <v>131</v>
+      </c>
+      <c r="H5" s="2">
+        <v>12.5466</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1669.2934</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>69699</v>
+      </c>
+      <c r="E6" s="3">
+        <v>67.571700000000007</v>
+      </c>
+      <c r="F6" s="2">
+        <v>69.470500000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>137</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12.492100000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1736.1467</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>35</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2518,7 +2505,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2529,29 +2516,44 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <f>SUBTOTAL(101,E5:E8)</f>
+        <v>67.696400000000011</v>
+      </c>
+      <c r="F10" s="2">
+        <f>SUBTOTAL(101,F5:F8)</f>
+        <v>69.530100000000004</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2">
+        <f>STDEV(E5:E8)</f>
+        <v>0.17635243122792091</v>
+      </c>
+      <c r="F11" s="2">
+        <f>STDEV(F5:F8)</f>
+        <v>8.4287128317430945E-2</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2561,35 +2563,6 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -2690,35 +2663,6 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2820,10 +2764,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="23">
   <si>
     <t>SEED</t>
   </si>
@@ -2340,7 +2340,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,14 +2483,30 @@
       <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>69699</v>
+      </c>
+      <c r="E7" s="3">
+        <v>67.510099999999994</v>
+      </c>
+      <c r="F7" s="2">
+        <v>69.272800000000004</v>
+      </c>
+      <c r="G7" s="2">
+        <v>115</v>
+      </c>
+      <c r="H7" s="2">
+        <v>12.400600000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1451.6303</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -2525,11 +2541,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <f>SUBTOTAL(101,E5:E8)</f>
-        <v>67.696400000000011</v>
+        <v>67.63430000000001</v>
       </c>
       <c r="F10" s="2">
         <f>SUBTOTAL(101,F5:F8)</f>
-        <v>69.530100000000004</v>
+        <v>69.444333333333347</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2542,11 +2558,11 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <f>STDEV(E5:E8)</f>
-        <v>0.17635243122792091</v>
+        <v>0.16467944619775876</v>
       </c>
       <c r="F11" s="2">
         <f>STDEV(F5:F8)</f>
-        <v>8.4287128317430945E-2</v>
+        <v>0.16006224830774987</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="23">
   <si>
     <t>SEED</t>
   </si>
@@ -2340,7 +2340,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,27 +2428,13 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>69699</v>
-      </c>
-      <c r="E5" s="3">
-        <v>67.821100000000001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>69.589699999999993</v>
-      </c>
-      <c r="G5" s="2">
-        <v>131</v>
-      </c>
-      <c r="H5" s="2">
-        <v>12.5466</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1669.2934</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -2457,27 +2443,13 @@
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
-        <v>69699</v>
-      </c>
-      <c r="E6" s="3">
-        <v>67.571700000000007</v>
-      </c>
-      <c r="F6" s="2">
-        <v>69.470500000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>137</v>
-      </c>
-      <c r="H6" s="2">
-        <v>12.492100000000001</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1736.1467</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -2486,33 +2458,21 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
-        <v>69699</v>
-      </c>
-      <c r="E7" s="3">
-        <v>67.510099999999994</v>
-      </c>
-      <c r="F7" s="2">
-        <v>69.272800000000004</v>
-      </c>
-      <c r="G7" s="2">
-        <v>115</v>
-      </c>
-      <c r="H7" s="2">
-        <v>12.400600000000001</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1451.6303</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>35</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2539,13 +2499,13 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2">
+      <c r="E10" s="2" t="e">
         <f>SUBTOTAL(101,E5:E8)</f>
-        <v>67.63430000000001</v>
-      </c>
-      <c r="F10" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="2" t="e">
         <f>SUBTOTAL(101,F5:F8)</f>
-        <v>69.444333333333347</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2556,13 +2516,13 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="E11" s="2" t="e">
         <f>STDEV(E5:E8)</f>
-        <v>0.16467944619775876</v>
-      </c>
-      <c r="F11" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="2" t="e">
         <f>STDEV(F5:F8)</f>
-        <v>0.16006224830774987</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_0B75A8EC36B784AF83EBC3A6BB2527D4D88CE26C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8CF9ECD4-BDAC-4787-B52C-BC80A7A2B188}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GATED" sheetId="1" r:id="rId1"/>
@@ -12,12 +13,45 @@
     <sheet name="GAT" sheetId="3" r:id="rId3"/>
     <sheet name="SAGE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="43">
   <si>
     <t>SEED</t>
   </si>
@@ -86,16 +120,76 @@
   </si>
   <si>
     <t>P-norm, clamp(1,100),  batch_size: 32, Inget alpha</t>
+  </si>
+  <si>
+    <t>P-norm, 4 lager, clamp(1,100), batch_size = 128, p_init=rand()*6+1</t>
+  </si>
+  <si>
+    <t>85.6628</t>
+  </si>
+  <si>
+    <t>85.7851</t>
+  </si>
+  <si>
+    <t>1.8512</t>
+  </si>
+  <si>
+    <t>TOTAL TIME (h)</t>
+  </si>
+  <si>
+    <t>147.1467</t>
+  </si>
+  <si>
+    <t>EPOCH TIME (s)</t>
+  </si>
+  <si>
+    <t>P100-PCIE-16GB</t>
+  </si>
+  <si>
+    <t>85.6828</t>
+  </si>
+  <si>
+    <t>85.9627</t>
+  </si>
+  <si>
+    <t>3.1039</t>
+  </si>
+  <si>
+    <t>146.4936</t>
+  </si>
+  <si>
+    <t>85.7062</t>
+  </si>
+  <si>
+    <t>85.9406</t>
+  </si>
+  <si>
+    <t>146.7176</t>
+  </si>
+  <si>
+    <t>2.3349</t>
+  </si>
+  <si>
+    <t>85.7013</t>
+  </si>
+  <si>
+    <t>85.9425</t>
+  </si>
+  <si>
+    <t>2.1307</t>
+  </si>
+  <si>
+    <t>146.6605</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +208,24 @@
       <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,19 +254,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,185 +587,188 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabell2112427" displayName="Tabell2112427" ref="B3:J12" totalsRowShown="0" dataDxfId="99">
-  <autoFilter ref="B3:J12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabell2112427" displayName="Tabell2112427" ref="B4:J13" totalsRowShown="0" dataDxfId="99">
+  <autoFilter ref="B4:J13" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="98"/>
-    <tableColumn id="12" name="Layers" dataDxfId="97"/>
-    <tableColumn id="10" name="Params" dataDxfId="96"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="95"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="94"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="93"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="92"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="91"/>
-    <tableColumn id="11" name="GPU" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEED" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Layers" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Params" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TEST_ACC" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TRAIN_ACC" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EPOCHS" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EPOCH TIME (s)" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TOTAL TIME (h)" dataDxfId="91"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GPU" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="B4:J11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="8"/>
-    <tableColumn id="12" name="Layers" dataDxfId="7"/>
-    <tableColumn id="10" name="Params" dataDxfId="6"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="5"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="4"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="3"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="2"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="1"/>
-    <tableColumn id="11" name="GPU" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabell2112428" displayName="Tabell2112428" ref="B19:J28" totalsRowShown="0" dataDxfId="89">
-  <autoFilter ref="B19:J28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabell2112428" displayName="Tabell2112428" ref="B20:J29" totalsRowShown="0" dataDxfId="89">
+  <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="88"/>
-    <tableColumn id="12" name="Layers" dataDxfId="87"/>
-    <tableColumn id="10" name="Params" dataDxfId="86"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="85"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="84"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="83"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="82"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="81"/>
-    <tableColumn id="11" name="GPU" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SEED" dataDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Layers" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Params" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TEST_ACC" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TRAIN_ACC" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EPOCHS" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EPOCH TIME" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL TIME" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GPU" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabell2112429" displayName="Tabell2112429" ref="B35:J44" totalsRowShown="0" dataDxfId="79">
-  <autoFilter ref="B35:J44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabell2112429" displayName="Tabell2112429" ref="B36:J45" totalsRowShown="0" dataDxfId="79">
+  <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="78"/>
-    <tableColumn id="12" name="Layers" dataDxfId="77"/>
-    <tableColumn id="10" name="Params" dataDxfId="76"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="75"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="74"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="73"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="72"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="71"/>
-    <tableColumn id="11" name="GPU" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SEED" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Layers" dataDxfId="77"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Params" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TEST_ACC" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TRAIN_ACC" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EPOCHS" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="EPOCH TIME" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="TOTAL TIME" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="GPU" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="69">
-  <autoFilter ref="B4:J11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="69">
+  <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="68"/>
-    <tableColumn id="12" name="Layers" dataDxfId="67"/>
-    <tableColumn id="10" name="Params" dataDxfId="66"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="65"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="64"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="63"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="62"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="61"/>
-    <tableColumn id="11" name="GPU" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SEED" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Layers" dataDxfId="67"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Params" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TEST_ACC" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TRAIN_ACC" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="EPOCHS" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="EPOCH TIME" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="TOTAL TIME" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="GPU" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="59">
-  <autoFilter ref="B20:J29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="59">
+  <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="58"/>
-    <tableColumn id="12" name="Layers" dataDxfId="57"/>
-    <tableColumn id="10" name="Params" dataDxfId="56"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="55"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="54"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="53"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="52"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="51"/>
-    <tableColumn id="11" name="GPU" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SEED" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Layers" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Params" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TEST_ACC" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TRAIN_ACC" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="EPOCHS" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="EPOCH TIME" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="TOTAL TIME" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="GPU" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="49">
-  <autoFilter ref="B36:J45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="49">
+  <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="48"/>
-    <tableColumn id="12" name="Layers" dataDxfId="47"/>
-    <tableColumn id="10" name="Params" dataDxfId="46"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="45"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="44"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="43"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="42"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="41"/>
-    <tableColumn id="11" name="GPU" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SEED" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Layers" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Params" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TEST_ACC" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TRAIN_ACC" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="EPOCHS" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="EPOCH TIME" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="TOTAL TIME" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="GPU" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="39">
-  <autoFilter ref="C5:K14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="39">
+  <autoFilter ref="C5:K14" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="38"/>
-    <tableColumn id="12" name="Layers" dataDxfId="37"/>
-    <tableColumn id="10" name="Params" dataDxfId="36"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="35"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="34"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="33"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="32"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="31"/>
-    <tableColumn id="11" name="GPU" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SEED" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Layers" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Params" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="TEST_ACC" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TRAIN_ACC" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="EPOCHS" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="EPOCH TIME" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="TOTAL TIME" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="GPU" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="C21:K30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="C21:K30" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="28"/>
-    <tableColumn id="12" name="Layers" dataDxfId="27"/>
-    <tableColumn id="10" name="Params" dataDxfId="26"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="25"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="24"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="23"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="22"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="21"/>
-    <tableColumn id="11" name="GPU" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SEED" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Layers" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Params" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TEST_ACC" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TRAIN_ACC" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="EPOCHS" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="EPOCH TIME" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="TOTAL TIME" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="GPU" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="C37:K46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="19">
+  <autoFilter ref="C37:K46" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="18"/>
-    <tableColumn id="12" name="Layers" dataDxfId="17"/>
-    <tableColumn id="10" name="Params" dataDxfId="16"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="15"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="14"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="13"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="12"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="11"/>
-    <tableColumn id="11" name="GPU" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -693,7 +817,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,9 +850,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,6 +902,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -936,122 +1094,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.73046875" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" customWidth="1"/>
+    <col min="5" max="5" width="15.73046875" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="8" max="8" width="17.1328125" customWidth="1"/>
+    <col min="9" max="9" width="17.59765625" customWidth="1"/>
+    <col min="10" max="10" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="2">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="6">
+        <v>104283</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8">
+        <v>51</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="2">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>104283</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="8">
+        <v>56</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6">
+        <v>104283</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8">
+        <v>75</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="2">
+        <v>95</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>104283</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>44</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1062,7 +1281,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1073,7 +1292,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1084,7 +1303,567 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="e" cm="1">
+        <f t="array" ref="E12">MED</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" s="2" t="e">
+        <f>SUBTOTAL(101,F7:F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="e">
+        <f>AVERAGE(E5:E8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="2" t="e">
+        <f>STDEV(F7:F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+    <col min="9" max="9" width="19.86328125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B5" s="2">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>510558</v>
+      </c>
+      <c r="E5" s="3">
+        <v>85.503200000000007</v>
+      </c>
+      <c r="F5" s="2">
+        <v>86.014700000000005</v>
+      </c>
+      <c r="G5" s="2">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B6" s="2">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>510558</v>
+      </c>
+      <c r="E6" s="3">
+        <v>85.5505</v>
+      </c>
+      <c r="F6" s="2">
+        <v>85.807299999999998</v>
+      </c>
+      <c r="G6" s="2">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B7" s="2">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>510558</v>
+      </c>
+      <c r="E7" s="3">
+        <v>85.229299999999995</v>
+      </c>
+      <c r="F7" s="2">
+        <v>85.645899999999997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B8" s="2">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>510558</v>
+      </c>
+      <c r="E8" s="2">
+        <v>85.462599999999995</v>
+      </c>
+      <c r="F8" s="2">
+        <v>86.2697</v>
+      </c>
+      <c r="G8" s="2">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2">
+        <v>566.55330000000004</v>
+      </c>
+      <c r="I8" s="2">
+        <v>27939.581600000001</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <f>SUBTOTAL(101,E5:E8)</f>
+        <v>85.436400000000006</v>
+      </c>
+      <c r="F10" s="2">
+        <f>SUBTOTAL(101,F5:F8)</f>
+        <v>85.934399999999997</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <f>STDEV(E5:E8)</f>
+        <v>0.14266265570686046</v>
+      </c>
+      <c r="F11" s="2">
+        <f>STDEV(F5:F8)</f>
+        <v>0.2697287773548353</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1095,52 +1874,52 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>2</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>4</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>5</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1151,7 +1930,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1162,7 +1941,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1173,7 +1952,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1184,7 +1963,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1195,7 +1974,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1206,7 +1985,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1217,7 +1996,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1228,52 +2007,52 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
         <v>0</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>2</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>3</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>4</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>5</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1284,7 +2063,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1295,7 +2074,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1306,7 +2085,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1317,7 +2096,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1328,7 +2107,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1339,7 +2118,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1350,7 +2129,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1361,540 +2140,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
-        <v>510558</v>
-      </c>
-      <c r="E5" s="3">
-        <v>85.503200000000007</v>
-      </c>
-      <c r="F5" s="2">
-        <v>86.014700000000005</v>
-      </c>
-      <c r="G5" s="2">
-        <v>63</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2">
-        <v>510558</v>
-      </c>
-      <c r="E6" s="3">
-        <v>85.5505</v>
-      </c>
-      <c r="F6" s="2">
-        <v>85.807299999999998</v>
-      </c>
-      <c r="G6" s="2">
-        <v>64</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>76</v>
-      </c>
-      <c r="C7" s="2">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2">
-        <v>510558</v>
-      </c>
-      <c r="E7" s="3">
-        <v>85.229299999999995</v>
-      </c>
-      <c r="F7" s="2">
-        <v>85.645899999999997</v>
-      </c>
-      <c r="G7" s="2">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <v>510558</v>
-      </c>
-      <c r="E8" s="2">
-        <v>85.462599999999995</v>
-      </c>
-      <c r="F8" s="2">
-        <v>86.2697</v>
-      </c>
-      <c r="G8" s="2">
-        <v>48</v>
-      </c>
-      <c r="H8" s="2">
-        <v>566.55330000000004</v>
-      </c>
-      <c r="I8" s="2">
-        <v>27939.581600000001</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <f>SUBTOTAL(101,E5:E8)</f>
-        <v>85.436400000000006</v>
-      </c>
-      <c r="F10" s="2">
-        <f>SUBTOTAL(101,F5:F8)</f>
-        <v>85.934399999999997</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <f>STDEV(E5:E8)</f>
-        <v>0.14266265570686046</v>
-      </c>
-      <c r="F11" s="2">
-        <f>STDEV(F5:F8)</f>
-        <v>0.2697287773548353</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1917,21 +2163,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:K46"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C37" sqref="C37:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +2206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1971,7 +2217,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1982,7 +2228,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1993,7 +2239,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2004,7 +2250,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2015,7 +2261,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2026,7 +2272,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2037,7 +2283,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2048,7 +2294,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2059,12 +2305,12 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2104,7 +2350,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2115,7 +2361,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2126,7 +2372,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2137,7 +2383,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2148,7 +2394,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2159,7 +2405,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2170,7 +2416,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2181,7 +2427,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2192,12 +2438,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2237,7 +2483,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2248,7 +2494,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2259,7 +2505,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2270,7 +2516,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2281,7 +2527,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2292,7 +2538,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2303,7 +2549,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2314,7 +2560,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2336,26 +2582,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.265625" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -2382,16 +2628,16 @@
       </c>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2667,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>41</v>
       </c>
@@ -2436,7 +2682,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>95</v>
       </c>
@@ -2451,7 +2697,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>12</v>
       </c>
@@ -2466,7 +2712,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>35</v>
       </c>
@@ -2481,7 +2727,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2492,7 +2738,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -2512,7 +2758,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2529,7 +2775,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2540,7 +2786,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2551,7 +2797,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2562,7 +2808,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2573,7 +2819,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2584,7 +2830,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2595,7 +2841,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2606,7 +2852,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2617,7 +2863,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2628,7 +2874,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2639,7 +2885,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2650,7 +2896,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2661,7 +2907,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2672,7 +2918,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2683,7 +2929,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2694,7 +2940,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2705,7 +2951,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2716,7 +2962,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2727,7 +2973,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_0B75A8EC36B784AF83EBC3A6BB2527D4D88CE26C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8CF9ECD4-BDAC-4787-B52C-BC80A7A2B188}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57BB13-D3E7-4252-AD74-C6A70A1B9ABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GATED" sheetId="1" r:id="rId1"/>
@@ -28,30 +28,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
   <si>
     <t>SEED</t>
   </si>
@@ -125,12 +103,6 @@
     <t>P-norm, 4 lager, clamp(1,100), batch_size = 128, p_init=rand()*6+1</t>
   </si>
   <si>
-    <t>85.6628</t>
-  </si>
-  <si>
-    <t>85.7851</t>
-  </si>
-  <si>
     <t>1.8512</t>
   </si>
   <si>
@@ -146,34 +118,16 @@
     <t>P100-PCIE-16GB</t>
   </si>
   <si>
-    <t>85.6828</t>
-  </si>
-  <si>
-    <t>85.9627</t>
-  </si>
-  <si>
     <t>3.1039</t>
   </si>
   <si>
     <t>146.4936</t>
   </si>
   <si>
-    <t>85.7062</t>
-  </si>
-  <si>
-    <t>85.9406</t>
-  </si>
-  <si>
     <t>146.7176</t>
   </si>
   <si>
     <t>2.3349</t>
-  </si>
-  <si>
-    <t>85.7013</t>
-  </si>
-  <si>
-    <t>85.9425</t>
   </si>
   <si>
     <t>2.1307</t>
@@ -189,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,20 +164,14 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -254,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -267,48 +215,164 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+  <dxfs count="101">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -595,180 +659,180 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabell2112427" displayName="Tabell2112427" ref="B4:J13" totalsRowShown="0" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabell2112427" displayName="Tabell2112427" ref="B4:J13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="B4:J13" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEED" dataDxfId="98"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Layers" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Params" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TEST_ACC" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TRAIN_ACC" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EPOCHS" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EPOCH TIME (s)" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TOTAL TIME (h)" dataDxfId="91"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GPU" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEED" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Layers" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Params" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TEST_ACC" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TRAIN_ACC" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EPOCHS" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EPOCH TIME (s)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TOTAL TIME (h)" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GPU" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="20">
   <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabell2112428" displayName="Tabell2112428" ref="B20:J29" totalsRowShown="0" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabell2112428" displayName="Tabell2112428" ref="B20:J29" totalsRowShown="0" dataDxfId="100">
   <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SEED" dataDxfId="88"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Layers" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Params" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TEST_ACC" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TRAIN_ACC" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EPOCHS" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EPOCH TIME" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL TIME" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GPU" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SEED" dataDxfId="99"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Layers" dataDxfId="98"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Params" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TEST_ACC" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TRAIN_ACC" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EPOCHS" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EPOCH TIME" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL TIME" dataDxfId="92"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GPU" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabell2112429" displayName="Tabell2112429" ref="B36:J45" totalsRowShown="0" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabell2112429" displayName="Tabell2112429" ref="B36:J45" totalsRowShown="0" dataDxfId="90">
   <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SEED" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Layers" dataDxfId="77"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Params" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TEST_ACC" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TRAIN_ACC" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EPOCHS" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="EPOCH TIME" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="TOTAL TIME" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="GPU" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SEED" dataDxfId="89"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Layers" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Params" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TEST_ACC" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TRAIN_ACC" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EPOCHS" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="EPOCH TIME" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="TOTAL TIME" dataDxfId="82"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="GPU" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="80">
   <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SEED" dataDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Layers" dataDxfId="67"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Params" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TEST_ACC" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TRAIN_ACC" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="EPOCHS" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="EPOCH TIME" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="TOTAL TIME" dataDxfId="61"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="GPU" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SEED" dataDxfId="79"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Layers" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Params" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TEST_ACC" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TRAIN_ACC" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="EPOCHS" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="EPOCH TIME" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="TOTAL TIME" dataDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="GPU" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="70">
   <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SEED" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Layers" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Params" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TEST_ACC" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TRAIN_ACC" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="EPOCHS" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="EPOCH TIME" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="TOTAL TIME" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="GPU" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SEED" dataDxfId="69"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Layers" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Params" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TEST_ACC" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TRAIN_ACC" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="EPOCHS" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="EPOCH TIME" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="TOTAL TIME" dataDxfId="62"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="GPU" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="60">
   <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SEED" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Layers" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Params" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TEST_ACC" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TRAIN_ACC" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="EPOCHS" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="EPOCH TIME" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="TOTAL TIME" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="GPU" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SEED" dataDxfId="59"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Layers" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Params" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TEST_ACC" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TRAIN_ACC" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="EPOCHS" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="EPOCH TIME" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="TOTAL TIME" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="GPU" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="50">
   <autoFilter ref="C5:K14" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SEED" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Layers" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Params" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="TEST_ACC" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TRAIN_ACC" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="EPOCHS" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="EPOCH TIME" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="TOTAL TIME" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="GPU" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SEED" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Layers" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Params" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="TEST_ACC" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TRAIN_ACC" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="EPOCHS" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="EPOCH TIME" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="TOTAL TIME" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="GPU" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="40">
   <autoFilter ref="C21:K30" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SEED" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Layers" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Params" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TEST_ACC" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TRAIN_ACC" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="EPOCHS" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="EPOCH TIME" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="TOTAL TIME" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="GPU" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SEED" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Layers" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Params" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TEST_ACC" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TRAIN_ACC" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="EPOCHS" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="EPOCH TIME" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="TOTAL TIME" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="GPU" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="30">
   <autoFilter ref="C37:K46" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1097,255 +1161,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.73046875" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" customWidth="1"/>
-    <col min="5" max="5" width="15.73046875" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" customWidth="1"/>
-    <col min="9" max="9" width="17.59765625" customWidth="1"/>
-    <col min="10" max="10" width="19.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>104283</v>
+      </c>
+      <c r="E5" s="10">
+        <v>85.701300000000003</v>
+      </c>
+      <c r="F5" s="10">
+        <v>85.942499999999995</v>
+      </c>
+      <c r="G5" s="9">
+        <v>51</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>104283</v>
+      </c>
+      <c r="E6" s="10">
+        <v>85.706199999999995</v>
+      </c>
+      <c r="F6" s="10">
+        <v>85.940600000000003</v>
+      </c>
+      <c r="G6" s="9">
+        <v>56</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>104283</v>
+      </c>
+      <c r="E7" s="10">
+        <v>85.6828</v>
+      </c>
+      <c r="F7" s="10">
+        <v>85.962699999999998</v>
+      </c>
+      <c r="G7" s="9">
+        <v>75</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B5" s="2">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="J7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>95</v>
+      </c>
+      <c r="C8" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D8" s="8">
         <v>104283</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="8">
-        <v>51</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="2">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6">
-        <v>104283</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="8">
-        <v>56</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="2">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6">
-        <v>104283</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8">
-        <v>75</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="2">
-        <v>95</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6">
-        <v>104283</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="10">
+        <v>85.662800000000004</v>
+      </c>
+      <c r="F8" s="10">
+        <v>85.7851</v>
+      </c>
+      <c r="G8" s="9">
+        <v>44</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>44</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="e" cm="1">
-        <f t="array" ref="E12">MED</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F12" s="2" t="e">
-        <f>SUBTOTAL(101,F7:F10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="e">
-        <f>AVERAGE(E5:E8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="2" t="e">
-        <f>STDEV(F7:F10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <f>SUBTOTAL(101,E5:E8)</f>
+        <v>85.688275000000004</v>
+      </c>
+      <c r="F12" s="7">
+        <f>SUBTOTAL(101,F5:F8)</f>
+        <v>85.907724999999999</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <f>STDEV(E5:E8)</f>
+        <v>1.9747636989436695E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <f>STDEV(F5:F8)</f>
+        <v>8.2359390276194822E-2</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1385,7 +1449,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1396,7 +1460,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1407,7 +1471,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1418,7 +1482,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1429,7 +1493,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1440,7 +1504,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1451,7 +1515,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1462,7 +1526,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1473,12 +1537,12 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1518,7 +1582,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1529,7 +1593,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1540,7 +1604,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1551,7 +1615,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1562,7 +1626,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1573,7 +1637,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1584,7 +1648,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1595,7 +1659,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1622,23 +1686,23 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" customWidth="1"/>
-    <col min="4" max="4" width="14.73046875" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" customWidth="1"/>
-    <col min="7" max="7" width="11.265625" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" customWidth="1"/>
-    <col min="9" max="9" width="19.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -1664,12 +1728,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>41</v>
       </c>
@@ -1728,7 +1792,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>53</v>
       </c>
@@ -1757,7 +1821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>76</v>
       </c>
@@ -1786,7 +1850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>12</v>
       </c>
@@ -1815,7 +1879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1826,7 +1890,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1846,7 +1910,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1863,7 +1927,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1874,7 +1938,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1885,12 +1949,12 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +1983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1930,7 +1994,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1941,7 +2005,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1952,7 +2016,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1963,7 +2027,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1974,7 +2038,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1985,7 +2049,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1996,7 +2060,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2007,7 +2071,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2018,12 +2082,12 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2063,7 +2127,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2074,7 +2138,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2085,7 +2149,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2096,7 +2160,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2107,7 +2171,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2118,7 +2182,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2129,7 +2193,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2140,7 +2204,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2170,14 +2234,14 @@
       <selection activeCell="C37" sqref="C37:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2217,7 +2281,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2228,7 +2292,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2239,7 +2303,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2250,7 +2314,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2261,7 +2325,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2272,7 +2336,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2283,7 +2347,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2294,7 +2358,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2305,12 +2369,12 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2350,7 +2414,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2361,7 +2425,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2372,7 +2436,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2383,7 +2447,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2394,7 +2458,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2405,7 +2469,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2416,7 +2480,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2427,7 +2491,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2438,12 +2502,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2483,7 +2547,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2494,7 +2558,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2505,7 +2569,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2516,7 +2580,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2527,7 +2591,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2538,7 +2602,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2549,7 +2613,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2560,7 +2624,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2585,23 +2649,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.265625" customWidth="1"/>
-    <col min="4" max="4" width="12.73046875" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" customWidth="1"/>
-    <col min="9" max="9" width="13.73046875" customWidth="1"/>
-    <col min="10" max="10" width="17.1328125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -2628,16 +2692,16 @@
       </c>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -2667,37 +2731,65 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D5" s="2">
+        <v>102095</v>
+      </c>
+      <c r="E5" s="3">
+        <v>85.742000000000004</v>
+      </c>
+      <c r="F5" s="2">
+        <v>86.226100000000002</v>
+      </c>
+      <c r="G5" s="2">
+        <v>71</v>
+      </c>
+      <c r="H5" s="2">
+        <v>126.459</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9155.3444999999992</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>95</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D6" s="2">
+        <v>102095</v>
+      </c>
+      <c r="E6" s="3">
+        <v>85.761200000000002</v>
+      </c>
+      <c r="F6" s="2">
+        <v>86.037700000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2">
+        <v>126.9375</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8047.9236000000001</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>12</v>
       </c>
@@ -2712,7 +2804,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>35</v>
       </c>
@@ -2727,7 +2819,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2738,44 +2830,44 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="e">
+      <c r="E10" s="2">
         <f>SUBTOTAL(101,E5:E8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="2" t="e">
+        <v>85.751599999999996</v>
+      </c>
+      <c r="F10" s="2">
         <f>SUBTOTAL(101,F5:F8)</f>
-        <v>#DIV/0!</v>
+        <v>86.131900000000002</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="e">
+      <c r="E11" s="2">
         <f>STDEV(E5:E8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="2" t="e">
+        <v>1.3576450198780218E-2</v>
+      </c>
+      <c r="F11" s="2">
         <f>STDEV(F5:F8)</f>
-        <v>#DIV/0!</v>
+        <v>0.13321891757554657</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2786,7 +2878,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2797,7 +2889,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2808,7 +2900,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2819,7 +2911,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2830,7 +2922,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2841,7 +2933,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2852,7 +2944,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2863,7 +2955,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2874,7 +2966,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2885,7 +2977,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2896,7 +2988,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2907,7 +2999,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2918,7 +3010,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2929,7 +3021,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2940,7 +3032,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2951,7 +3043,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2962,7 +3054,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2973,7 +3065,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57BB13-D3E7-4252-AD74-C6A70A1B9ABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1994CF5-2E71-4C6F-B3B5-768775607FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5970" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2650,7 +2650,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1994CF5-2E71-4C6F-B3B5-768775607FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E579BF-EB42-8948-B82B-DD8D3C7AC6DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="1900" windowWidth="21600" windowHeight="11380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GATED" sheetId="1" r:id="rId1"/>
@@ -234,6 +234,276 @@
   </cellStyles>
   <dxfs count="101">
     <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -257,6 +527,7 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -373,277 +644,6 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -659,180 +659,180 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabell2112427" displayName="Tabell2112427" ref="B4:J13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabell2112427" displayName="Tabell2112427" ref="B4:J13" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="B4:J13" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEED" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Layers" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Params" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TEST_ACC" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TRAIN_ACC" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EPOCHS" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EPOCH TIME (s)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TOTAL TIME (h)" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GPU" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEED" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Layers" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Params" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TEST_ACC" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TRAIN_ACC" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EPOCHS" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EPOCH TIME (s)" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TOTAL TIME (h)" dataDxfId="91"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GPU" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabell2112428" displayName="Tabell2112428" ref="B20:J29" totalsRowShown="0" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabell2112428" displayName="Tabell2112428" ref="B20:J29" totalsRowShown="0" dataDxfId="89">
   <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SEED" dataDxfId="99"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Layers" dataDxfId="98"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Params" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TEST_ACC" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TRAIN_ACC" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EPOCHS" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EPOCH TIME" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL TIME" dataDxfId="92"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GPU" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SEED" dataDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Layers" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Params" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TEST_ACC" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TRAIN_ACC" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EPOCHS" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EPOCH TIME" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL TIME" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GPU" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabell2112429" displayName="Tabell2112429" ref="B36:J45" totalsRowShown="0" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabell2112429" displayName="Tabell2112429" ref="B36:J45" totalsRowShown="0" dataDxfId="79">
   <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SEED" dataDxfId="89"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Layers" dataDxfId="88"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Params" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TEST_ACC" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TRAIN_ACC" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EPOCHS" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="EPOCH TIME" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="TOTAL TIME" dataDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="GPU" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SEED" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Layers" dataDxfId="77"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Params" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TEST_ACC" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TRAIN_ACC" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EPOCHS" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="EPOCH TIME" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="TOTAL TIME" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="GPU" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="69">
   <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SEED" dataDxfId="79"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Layers" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Params" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TEST_ACC" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TRAIN_ACC" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="EPOCHS" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="EPOCH TIME" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="TOTAL TIME" dataDxfId="72"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="GPU" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SEED" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Layers" dataDxfId="67"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Params" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TEST_ACC" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TRAIN_ACC" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="EPOCHS" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="EPOCH TIME" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="TOTAL TIME" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="GPU" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="59">
   <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SEED" dataDxfId="69"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Layers" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Params" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TEST_ACC" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TRAIN_ACC" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="EPOCHS" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="EPOCH TIME" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="TOTAL TIME" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="GPU" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SEED" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Layers" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Params" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TEST_ACC" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TRAIN_ACC" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="EPOCHS" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="EPOCH TIME" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="TOTAL TIME" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="GPU" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="49">
   <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SEED" dataDxfId="59"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Layers" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Params" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TEST_ACC" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TRAIN_ACC" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="EPOCHS" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="EPOCH TIME" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="TOTAL TIME" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="GPU" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SEED" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Layers" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Params" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TEST_ACC" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TRAIN_ACC" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="EPOCHS" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="EPOCH TIME" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="TOTAL TIME" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="GPU" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="C5:K14" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SEED" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Layers" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Params" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="TEST_ACC" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TRAIN_ACC" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="EPOCHS" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="EPOCH TIME" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="TOTAL TIME" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="GPU" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SEED" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Layers" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Params" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="TEST_ACC" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TRAIN_ACC" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="EPOCHS" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="EPOCH TIME" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="TOTAL TIME" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="GPU" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="C21:K30" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SEED" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Layers" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Params" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TEST_ACC" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TRAIN_ACC" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="EPOCHS" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="EPOCH TIME" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="TOTAL TIME" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="GPU" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SEED" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Layers" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Params" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TEST_ACC" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TRAIN_ACC" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="EPOCHS" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="EPOCH TIME" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="TOTAL TIME" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="GPU" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="C37:K46" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1165,31 +1165,31 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>41</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>35</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
         <v>12</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>95</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1345,7 +1345,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1356,7 +1356,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1367,7 +1367,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1404,12 +1404,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1449,7 +1449,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1460,7 +1460,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1471,7 +1471,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1482,7 +1482,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1493,7 +1493,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1504,7 +1504,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1515,7 +1515,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1526,7 +1526,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1537,12 +1537,12 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1582,7 +1582,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1593,7 +1593,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1604,7 +1604,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1615,7 +1615,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1626,7 +1626,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1637,7 +1637,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1648,7 +1648,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1659,7 +1659,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1685,24 +1685,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -1728,12 +1728,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>41</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>53</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>76</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>12</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1890,7 +1890,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1927,7 +1927,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1938,7 +1938,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1949,12 +1949,12 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1983,9 +1983,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1994,9 +1996,11 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2005,9 +2009,11 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2016,9 +2022,11 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2027,7 +2035,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2038,7 +2046,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2049,7 +2057,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2060,7 +2068,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2071,7 +2079,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2082,12 +2090,12 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +2124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2127,7 +2135,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2138,7 +2146,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2149,7 +2157,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2160,7 +2168,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2171,7 +2179,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2182,7 +2190,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2193,7 +2201,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2204,7 +2212,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2234,14 +2242,14 @@
       <selection activeCell="C37" sqref="C37:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -2270,7 +2278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2281,7 +2289,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2292,7 +2300,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2303,7 +2311,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2314,7 +2322,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2325,7 +2333,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2336,7 +2344,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2347,7 +2355,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2358,7 +2366,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2369,12 +2377,12 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2414,7 +2422,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2425,7 +2433,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2436,7 +2444,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2447,7 +2455,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2458,7 +2466,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2469,7 +2477,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2480,7 +2488,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2491,7 +2499,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2502,12 +2510,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -2536,7 +2544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2547,7 +2555,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2558,7 +2566,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2569,7 +2577,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2580,7 +2588,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2591,7 +2599,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2602,7 +2610,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2613,7 +2621,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2624,7 +2632,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2649,23 +2657,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -2692,16 +2700,16 @@
       </c>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2739,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>41</v>
       </c>
@@ -2760,7 +2768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>95</v>
       </c>
@@ -2789,7 +2797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>12</v>
       </c>
@@ -2804,7 +2812,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>35</v>
       </c>
@@ -2819,7 +2827,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2830,7 +2838,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -2850,7 +2858,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2867,7 +2875,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2878,7 +2886,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2889,7 +2897,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2900,7 +2908,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2911,7 +2919,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2922,7 +2930,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2933,7 +2941,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2944,7 +2952,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2955,7 +2963,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2966,7 +2974,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2977,7 +2985,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2988,7 +2996,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2999,7 +3007,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3010,7 +3018,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3021,7 +3029,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3032,7 +3040,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3043,7 +3051,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3054,7 +3062,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3065,7 +3073,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1994CF5-2E71-4C6F-B3B5-768775607FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AD7636-C136-46E2-AE33-C5EE31447B99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5970" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="35">
   <si>
     <t>SEED</t>
   </si>
@@ -2650,7 +2650,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,13 +2796,27 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="D7" s="2">
+        <v>102095</v>
+      </c>
+      <c r="E7" s="3">
+        <v>85.712299999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>86.254199999999997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2">
+        <v>125.071</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9679.8510000000006</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -2839,11 +2853,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <f>SUBTOTAL(101,E5:E8)</f>
-        <v>85.751599999999996</v>
+        <v>85.738500000000002</v>
       </c>
       <c r="F10" s="2">
         <f>SUBTOTAL(101,F5:F8)</f>
-        <v>86.131900000000002</v>
+        <v>86.172666666666672</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2856,11 +2870,11 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <f>STDEV(E5:E8)</f>
-        <v>1.3576450198780218E-2</v>
+        <v>2.4637167044936258E-2</v>
       </c>
       <c r="F11" s="2">
         <f>STDEV(F5:F8)</f>
-        <v>0.13321891757554657</v>
+        <v>0.1177259671157265</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D462A79-2A14-44CA-BA19-EB14311494DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4940DEB-39A6-4616-A09F-E85E301ADE8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5970" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="35">
   <si>
     <t>SEED</t>
   </si>
@@ -2650,7 +2650,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,13 +2796,27 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="D7" s="2">
+        <v>102095</v>
+      </c>
+      <c r="E7" s="3">
+        <v>85.712299999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>86.254199999999997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2">
+        <v>125.071</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9679.8510000000006</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -2839,11 +2853,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <f>SUBTOTAL(101,E5:E8)</f>
-        <v>85.751599999999996</v>
+        <v>85.738500000000002</v>
       </c>
       <c r="F10" s="2">
         <f>SUBTOTAL(101,F5:F8)</f>
-        <v>86.131900000000002</v>
+        <v>86.172666666666672</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2856,11 +2870,11 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <f>STDEV(E5:E8)</f>
-        <v>1.3576450198780218E-2</v>
+        <v>2.4637167044936258E-2</v>
       </c>
       <c r="F11" s="2">
         <f>STDEV(F5:F8)</f>
-        <v>0.13321891757554657</v>
+        <v>0.1177259671157265</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4940DEB-39A6-4616-A09F-E85E301ADE8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C81D51B-1C06-B64E-98BA-E3B78D2F291A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1040" yWindow="1600" windowWidth="21600" windowHeight="11380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GATED" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
   <si>
     <t>SEED</t>
   </si>
@@ -134,6 +134,36 @@
   </si>
   <si>
     <t>146.6605</t>
+  </si>
+  <si>
+    <t>P-norm, clamp(1,100),  batch_size: 128, Inget alpha</t>
+  </si>
+  <si>
+    <t>93.1292</t>
+  </si>
+  <si>
+    <t>V100-SXM2-16GB</t>
+  </si>
+  <si>
+    <t>92.6039</t>
+  </si>
+  <si>
+    <t>6983.28</t>
+  </si>
+  <si>
+    <t>114.6321</t>
+  </si>
+  <si>
+    <t>8519.76</t>
+  </si>
+  <si>
+    <t>133.9065</t>
+  </si>
+  <si>
+    <t>6168.5357</t>
+  </si>
+  <si>
+    <t>8088.3585</t>
   </si>
 </sst>
 </file>
@@ -234,6 +264,276 @@
   </cellStyles>
   <dxfs count="101">
     <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -257,6 +557,7 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -373,277 +674,6 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -659,180 +689,180 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabell2112427" displayName="Tabell2112427" ref="B4:J13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabell2112427" displayName="Tabell2112427" ref="B4:J13" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="B4:J13" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEED" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Layers" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Params" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TEST_ACC" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TRAIN_ACC" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EPOCHS" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EPOCH TIME (s)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TOTAL TIME (h)" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GPU" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEED" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Layers" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Params" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TEST_ACC" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TRAIN_ACC" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EPOCHS" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EPOCH TIME (s)" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TOTAL TIME (h)" dataDxfId="91"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GPU" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabell2112428" displayName="Tabell2112428" ref="B20:J29" totalsRowShown="0" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabell2112428" displayName="Tabell2112428" ref="B20:J29" totalsRowShown="0" dataDxfId="89">
   <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SEED" dataDxfId="99"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Layers" dataDxfId="98"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Params" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TEST_ACC" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TRAIN_ACC" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EPOCHS" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EPOCH TIME" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL TIME" dataDxfId="92"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GPU" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SEED" dataDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Layers" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Params" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TEST_ACC" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TRAIN_ACC" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EPOCHS" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EPOCH TIME" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL TIME" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GPU" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabell2112429" displayName="Tabell2112429" ref="B36:J45" totalsRowShown="0" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabell2112429" displayName="Tabell2112429" ref="B36:J45" totalsRowShown="0" dataDxfId="79">
   <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SEED" dataDxfId="89"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Layers" dataDxfId="88"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Params" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TEST_ACC" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TRAIN_ACC" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EPOCHS" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="EPOCH TIME" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="TOTAL TIME" dataDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="GPU" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SEED" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Layers" dataDxfId="77"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Params" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TEST_ACC" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TRAIN_ACC" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EPOCHS" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="EPOCH TIME" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="TOTAL TIME" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="GPU" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="69">
   <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SEED" dataDxfId="79"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Layers" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Params" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TEST_ACC" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TRAIN_ACC" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="EPOCHS" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="EPOCH TIME" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="TOTAL TIME" dataDxfId="72"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="GPU" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SEED" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Layers" dataDxfId="67"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Params" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TEST_ACC" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TRAIN_ACC" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="EPOCHS" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="EPOCH TIME" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="TOTAL TIME" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="GPU" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="59">
   <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SEED" dataDxfId="69"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Layers" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Params" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TEST_ACC" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TRAIN_ACC" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="EPOCHS" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="EPOCH TIME" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="TOTAL TIME" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="GPU" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SEED" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Layers" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Params" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TEST_ACC" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TRAIN_ACC" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="EPOCHS" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="EPOCH TIME" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="TOTAL TIME" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="GPU" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="49">
   <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SEED" dataDxfId="59"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Layers" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Params" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TEST_ACC" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TRAIN_ACC" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="EPOCHS" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="EPOCH TIME" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="TOTAL TIME" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="GPU" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SEED" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Layers" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Params" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TEST_ACC" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TRAIN_ACC" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="EPOCHS" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="EPOCH TIME" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="TOTAL TIME" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="GPU" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="C5:K14" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SEED" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Layers" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Params" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="TEST_ACC" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TRAIN_ACC" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="EPOCHS" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="EPOCH TIME" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="TOTAL TIME" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="GPU" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SEED" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Layers" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Params" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="TEST_ACC" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TRAIN_ACC" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="EPOCHS" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="EPOCH TIME" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="TOTAL TIME" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="GPU" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="C21:K30" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SEED" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Layers" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Params" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TEST_ACC" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TRAIN_ACC" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="EPOCHS" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="EPOCH TIME" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="TOTAL TIME" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="GPU" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SEED" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Layers" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Params" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TEST_ACC" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TRAIN_ACC" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="EPOCHS" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="EPOCH TIME" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="TOTAL TIME" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="GPU" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="C37:K46" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1165,31 +1195,31 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>41</v>
       </c>
@@ -1247,7 +1277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>35</v>
       </c>
@@ -1276,7 +1306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
         <v>12</v>
       </c>
@@ -1305,7 +1335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>95</v>
       </c>
@@ -1334,7 +1364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1345,7 +1375,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1356,7 +1386,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1367,7 +1397,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1387,7 +1417,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1404,12 +1434,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1449,7 +1479,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1460,7 +1490,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1471,7 +1501,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1482,7 +1512,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1493,7 +1523,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1504,7 +1534,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1515,7 +1545,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1526,7 +1556,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1537,12 +1567,12 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1582,7 +1612,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1593,7 +1623,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1604,7 +1634,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1615,7 +1645,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1626,7 +1656,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1637,7 +1667,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1648,7 +1678,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1659,7 +1689,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1685,24 +1715,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -1728,12 +1758,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>41</v>
       </c>
@@ -1792,7 +1822,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>53</v>
       </c>
@@ -1821,7 +1851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>76</v>
       </c>
@@ -1850,7 +1880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>12</v>
       </c>
@@ -1879,7 +1909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1890,7 +1920,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1910,7 +1940,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1927,7 +1957,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1938,7 +1968,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1949,12 +1979,12 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1983,51 +2013,123 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>101324</v>
+      </c>
+      <c r="E21" s="2">
+        <v>85.552000000000007</v>
+      </c>
+      <c r="F21" s="2">
+        <v>86.076400000000007</v>
+      </c>
+      <c r="G21" s="2">
+        <v>59</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>95</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>101324</v>
+      </c>
+      <c r="E22" s="2">
+        <v>85.407899999999998</v>
+      </c>
+      <c r="F22" s="2">
+        <v>86.279499999999999</v>
+      </c>
+      <c r="G22" s="2">
+        <v>73</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>101324</v>
+      </c>
+      <c r="E23" s="2">
+        <v>85.550299999999993</v>
+      </c>
+      <c r="F23" s="2">
+        <v>86.3703</v>
+      </c>
+      <c r="G23" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>101324</v>
+      </c>
+      <c r="E24" s="2">
+        <v>85.471900000000005</v>
+      </c>
+      <c r="F24" s="2">
+        <v>86.191699999999997</v>
+      </c>
+      <c r="G24" s="2">
+        <v>65</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2038,7 +2140,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2049,7 +2151,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2060,34 +2162,49 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="2">
+        <f>SUBTOTAL(101,E21:E24)</f>
+        <v>85.495525000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <f>SUBTOTAL(101,F21:F24)</f>
+        <v>86.229475000000008</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="2">
+        <f>STDEV(E21:E24)</f>
+        <v>6.9344568400608708E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <f>STDEV(F21:F24)</f>
+        <v>0.12542339959778653</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +2233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2127,7 +2244,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2138,7 +2255,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2149,7 +2266,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2160,7 +2277,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2171,7 +2288,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2182,7 +2299,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2193,7 +2310,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2204,7 +2321,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2230,18 +2347,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:K46"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -2270,7 +2387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2281,7 +2398,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2292,7 +2409,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2303,7 +2420,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2314,7 +2431,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2325,7 +2442,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2336,7 +2453,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2347,7 +2464,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2358,7 +2475,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2369,12 +2486,12 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2414,7 +2531,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2425,7 +2542,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2436,7 +2553,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2447,7 +2564,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2458,7 +2575,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2469,7 +2586,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2480,7 +2597,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2491,7 +2608,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2502,12 +2619,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -2536,7 +2653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2547,7 +2664,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2558,7 +2675,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2569,7 +2686,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2580,7 +2697,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2591,7 +2708,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2602,7 +2719,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2613,7 +2730,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2624,7 +2741,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2649,23 +2766,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -2692,16 +2809,16 @@
       </c>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2848,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>41</v>
       </c>
@@ -2760,7 +2877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>95</v>
       </c>
@@ -2789,7 +2906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>12</v>
       </c>
@@ -2818,7 +2935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>35</v>
       </c>
@@ -2833,7 +2950,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2844,7 +2961,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -2864,7 +2981,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2881,7 +2998,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2892,7 +3009,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2903,7 +3020,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2914,7 +3031,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2925,7 +3042,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2936,7 +3053,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2947,7 +3064,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2958,7 +3075,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2969,7 +3086,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2980,7 +3097,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2991,7 +3108,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3002,7 +3119,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3013,7 +3130,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3024,7 +3141,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3035,7 +3152,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3046,7 +3163,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3057,7 +3174,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3068,7 +3185,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3079,7 +3196,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C81D51B-1C06-B64E-98BA-E3B78D2F291A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1040" yWindow="1600" windowWidth="21600" windowHeight="11380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1035" yWindow="1605" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GATED" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="GAT" sheetId="3" r:id="rId3"/>
     <sheet name="SAGE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="46">
   <si>
     <t>SEED</t>
   </si>
@@ -164,12 +163,15 @@
   </si>
   <si>
     <t>8088.3585</t>
+  </si>
+  <si>
+    <t>P-norm, clamp(1,100),  1-7, eps = 1e-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -262,7 +264,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="111">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -542,7 +574,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -555,7 +586,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -568,7 +598,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -581,7 +610,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -594,7 +622,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -607,7 +634,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -620,7 +646,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -633,7 +658,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -646,7 +670,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -659,7 +682,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -672,7 +694,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
       </font>
     </dxf>
   </dxfs>
@@ -689,180 +710,198 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabell2112427" displayName="Tabell2112427" ref="B4:J13" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
-  <autoFilter ref="B4:J13" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabell2112427" displayName="Tabell2112427" ref="B4:J13" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+  <autoFilter ref="B4:J13"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEED" dataDxfId="98"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Layers" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Params" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TEST_ACC" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TRAIN_ACC" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EPOCHS" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EPOCH TIME (s)" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TOTAL TIME (h)" dataDxfId="91"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GPU" dataDxfId="90"/>
+    <tableColumn id="1" name="SEED" dataDxfId="108"/>
+    <tableColumn id="12" name="Layers" dataDxfId="107"/>
+    <tableColumn id="10" name="Params" dataDxfId="106"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="105"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="104"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="103"/>
+    <tableColumn id="5" name="EPOCH TIME (s)" dataDxfId="102"/>
+    <tableColumn id="6" name="TOTAL TIME (h)" dataDxfId="101"/>
+    <tableColumn id="11" name="GPU" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="19">
+  <autoFilter ref="B4:J11"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="0"/>
+    <tableColumn id="1" name="SEED" dataDxfId="18"/>
+    <tableColumn id="12" name="Layers" dataDxfId="17"/>
+    <tableColumn id="10" name="Params" dataDxfId="16"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="15"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="14"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="13"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="12"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="11"/>
+    <tableColumn id="11" name="GPU" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell21123" displayName="Tabell21123" ref="B14:J21" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="B14:J21"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="SEED" dataDxfId="8"/>
+    <tableColumn id="12" name="Layers" dataDxfId="7"/>
+    <tableColumn id="10" name="Params" dataDxfId="6"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="5"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="4"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="3"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="2"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="1"/>
+    <tableColumn id="11" name="GPU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabell2112428" displayName="Tabell2112428" ref="B20:J29" totalsRowShown="0" dataDxfId="89">
-  <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabell2112428" displayName="Tabell2112428" ref="B20:J29" totalsRowShown="0" dataDxfId="99">
+  <autoFilter ref="B20:J29"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SEED" dataDxfId="88"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Layers" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Params" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TEST_ACC" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TRAIN_ACC" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EPOCHS" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EPOCH TIME" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL TIME" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GPU" dataDxfId="80"/>
+    <tableColumn id="1" name="SEED" dataDxfId="98"/>
+    <tableColumn id="12" name="Layers" dataDxfId="97"/>
+    <tableColumn id="10" name="Params" dataDxfId="96"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="95"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="94"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="93"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="92"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="91"/>
+    <tableColumn id="11" name="GPU" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabell2112429" displayName="Tabell2112429" ref="B36:J45" totalsRowShown="0" dataDxfId="79">
-  <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabell2112429" displayName="Tabell2112429" ref="B36:J45" totalsRowShown="0" dataDxfId="89">
+  <autoFilter ref="B36:J45"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SEED" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Layers" dataDxfId="77"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Params" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TEST_ACC" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TRAIN_ACC" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EPOCHS" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="EPOCH TIME" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="TOTAL TIME" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="GPU" dataDxfId="70"/>
+    <tableColumn id="1" name="SEED" dataDxfId="88"/>
+    <tableColumn id="12" name="Layers" dataDxfId="87"/>
+    <tableColumn id="10" name="Params" dataDxfId="86"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="85"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="84"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="83"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="82"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="81"/>
+    <tableColumn id="11" name="GPU" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="69">
-  <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="79">
+  <autoFilter ref="B4:J11"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SEED" dataDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Layers" dataDxfId="67"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Params" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TEST_ACC" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TRAIN_ACC" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="EPOCHS" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="EPOCH TIME" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="TOTAL TIME" dataDxfId="61"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="GPU" dataDxfId="60"/>
+    <tableColumn id="1" name="SEED" dataDxfId="78"/>
+    <tableColumn id="12" name="Layers" dataDxfId="77"/>
+    <tableColumn id="10" name="Params" dataDxfId="76"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="75"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="74"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="73"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="72"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="71"/>
+    <tableColumn id="11" name="GPU" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="59">
-  <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="69">
+  <autoFilter ref="B20:J29"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SEED" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Layers" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Params" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TEST_ACC" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TRAIN_ACC" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="EPOCHS" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="EPOCH TIME" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="TOTAL TIME" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="GPU" dataDxfId="50"/>
+    <tableColumn id="1" name="SEED" dataDxfId="68"/>
+    <tableColumn id="12" name="Layers" dataDxfId="67"/>
+    <tableColumn id="10" name="Params" dataDxfId="66"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="65"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="64"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="63"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="62"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="61"/>
+    <tableColumn id="11" name="GPU" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="49">
-  <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="59">
+  <autoFilter ref="B36:J45"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SEED" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Layers" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Params" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TEST_ACC" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TRAIN_ACC" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="EPOCHS" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="EPOCH TIME" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="TOTAL TIME" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="GPU" dataDxfId="40"/>
+    <tableColumn id="1" name="SEED" dataDxfId="58"/>
+    <tableColumn id="12" name="Layers" dataDxfId="57"/>
+    <tableColumn id="10" name="Params" dataDxfId="56"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="55"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="54"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="53"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="52"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="51"/>
+    <tableColumn id="11" name="GPU" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="39">
-  <autoFilter ref="C5:K14" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="49">
+  <autoFilter ref="C5:K14"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SEED" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Layers" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Params" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="TEST_ACC" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TRAIN_ACC" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="EPOCHS" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="EPOCH TIME" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="TOTAL TIME" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="GPU" dataDxfId="30"/>
+    <tableColumn id="1" name="SEED" dataDxfId="48"/>
+    <tableColumn id="12" name="Layers" dataDxfId="47"/>
+    <tableColumn id="10" name="Params" dataDxfId="46"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="45"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="44"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="43"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="42"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="41"/>
+    <tableColumn id="11" name="GPU" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="C21:K30" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="39">
+  <autoFilter ref="C21:K30"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SEED" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Layers" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Params" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TEST_ACC" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TRAIN_ACC" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="EPOCHS" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="EPOCH TIME" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="TOTAL TIME" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="GPU" dataDxfId="20"/>
+    <tableColumn id="1" name="SEED" dataDxfId="38"/>
+    <tableColumn id="12" name="Layers" dataDxfId="37"/>
+    <tableColumn id="10" name="Params" dataDxfId="36"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="35"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="34"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="33"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="32"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="31"/>
+    <tableColumn id="11" name="GPU" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="C37:K46" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="C37:K46"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="10"/>
+    <tableColumn id="1" name="SEED" dataDxfId="28"/>
+    <tableColumn id="12" name="Layers" dataDxfId="27"/>
+    <tableColumn id="10" name="Params" dataDxfId="26"/>
+    <tableColumn id="2" name="TEST_ACC" dataDxfId="25"/>
+    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="24"/>
+    <tableColumn id="4" name="EPOCHS" dataDxfId="23"/>
+    <tableColumn id="5" name="EPOCH TIME" dataDxfId="22"/>
+    <tableColumn id="6" name="TOTAL TIME" dataDxfId="21"/>
+    <tableColumn id="11" name="GPU" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -911,7 +950,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -944,26 +983,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -996,23 +1018,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1188,25 +1193,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1545,7 +1550,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1556,7 +1561,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1567,12 +1572,12 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1612,7 +1617,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1623,7 +1628,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1634,7 +1639,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1645,7 +1650,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1656,7 +1661,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1667,7 +1672,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1678,7 +1683,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1689,7 +1694,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1712,23 +1717,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2288,7 +2293,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2299,7 +2304,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2310,7 +2315,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2321,7 +2326,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2344,14 +2349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K46"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
@@ -2763,23 +2768,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2814,7 +2819,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="L3" s="5"/>
     </row>
@@ -2942,13 +2947,27 @@
       <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="D8" s="2">
+        <v>102095</v>
+      </c>
+      <c r="E8" s="2">
+        <v>85.666200000000003</v>
+      </c>
+      <c r="F8" s="2">
+        <v>86.0779</v>
+      </c>
+      <c r="G8" s="2">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2">
+        <v>127.0316</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8180.7849999999999</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
@@ -2970,11 +2989,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <f>SUBTOTAL(101,E5:E8)</f>
-        <v>85.738500000000002</v>
+        <v>85.720425000000006</v>
       </c>
       <c r="F10" s="2">
         <f>SUBTOTAL(101,F5:F8)</f>
-        <v>86.172666666666672</v>
+        <v>86.148975000000007</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2987,11 +3006,11 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <f>STDEV(E5:E8)</f>
-        <v>2.4637167044936258E-2</v>
+        <v>4.137006768183981E-2</v>
       </c>
       <c r="F11" s="2">
         <f>STDEV(F5:F8)</f>
-        <v>0.1177259671157265</v>
+        <v>0.10716707750050797</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -3009,29 +3028,149 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>95</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2" t="e">
+        <f>SUBTOTAL(101,E15:E18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="2" t="e">
+        <f>SUBTOTAL(101,F15:F18)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="2" t="e">
+        <f>STDEV(E15:E18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="2" t="e">
+        <f>STDEV(F15:F18)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3042,7 +3181,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3053,7 +3192,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3064,7 +3203,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3075,7 +3214,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3086,7 +3225,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3097,7 +3236,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3108,7 +3247,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3119,7 +3258,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3130,7 +3269,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3141,7 +3280,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3152,7 +3291,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3163,7 +3302,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3174,7 +3313,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3185,7 +3324,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3196,7 +3335,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3210,8 +3349,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -2772,7 +2772,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
   <si>
     <t>SEED</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>P-norm, clamp(1,100),  1-7, eps = 1e-6</t>
+  </si>
+  <si>
+    <t>TOTAL TIME (s)</t>
   </si>
 </sst>
 </file>
@@ -738,7 +741,7 @@
     <tableColumn id="3" name="TRAIN_ACC" dataDxfId="14"/>
     <tableColumn id="4" name="EPOCHS" dataDxfId="13"/>
     <tableColumn id="5" name="EPOCH TIME" dataDxfId="12"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="11"/>
+    <tableColumn id="6" name="TOTAL TIME (s)" dataDxfId="11"/>
     <tableColumn id="11" name="GPU" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -756,7 +759,7 @@
     <tableColumn id="3" name="TRAIN_ACC" dataDxfId="4"/>
     <tableColumn id="4" name="EPOCHS" dataDxfId="3"/>
     <tableColumn id="5" name="EPOCH TIME" dataDxfId="2"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="1"/>
+    <tableColumn id="6" name="TOTAL TIME (h)" dataDxfId="1"/>
     <tableColumn id="11" name="GPU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2771,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,7 +2786,7 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2846,7 +2849,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
@@ -3056,7 +3059,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
         <v>10</v>
@@ -3069,13 +3072,27 @@
       <c r="C15" s="2">
         <v>16</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="D15" s="2">
+        <v>504458</v>
+      </c>
+      <c r="E15" s="3">
+        <v>84.727400000000003</v>
+      </c>
+      <c r="F15" s="2">
+        <v>92.705299999999994</v>
+      </c>
+      <c r="G15" s="2">
+        <v>70</v>
+      </c>
+      <c r="H15" s="2">
+        <v>613.11649999999997</v>
+      </c>
+      <c r="I15" s="2">
+        <v>12.131600000000001</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -3084,7 +3101,9 @@
       <c r="C16" s="2">
         <v>16</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>504458</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3140,13 +3159,13 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="e">
+      <c r="E20" s="2">
         <f>SUBTOTAL(101,E15:E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="2" t="e">
+        <v>84.727400000000003</v>
+      </c>
+      <c r="F20" s="2">
         <f>SUBTOTAL(101,F15:F18)</f>
-        <v>#DIV/0!</v>
+        <v>92.705299999999994</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -2775,7 +2775,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B70725-3F7C-3948-8F9D-0A3A5EDEC7F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1035" yWindow="1605" windowWidth="21600" windowHeight="11385" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="11380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GATED" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="GAT" sheetId="3" r:id="rId3"/>
     <sheet name="SAGE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="52">
   <si>
     <t>SEED</t>
   </si>
@@ -169,12 +170,27 @@
   </si>
   <si>
     <t>TOTAL TIME (s)</t>
+  </si>
+  <si>
+    <t>CLUSTER</t>
+  </si>
+  <si>
+    <t>60.6237</t>
+  </si>
+  <si>
+    <t>62.4512</t>
+  </si>
+  <si>
+    <t>85.9524</t>
+  </si>
+  <si>
+    <t>6213.1886</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -713,198 +729,198 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabell2112427" displayName="Tabell2112427" ref="B4:J13" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
-  <autoFilter ref="B4:J13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabell2112427" displayName="Tabell2112427" ref="B4:J13" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+  <autoFilter ref="B4:J13" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="108"/>
-    <tableColumn id="12" name="Layers" dataDxfId="107"/>
-    <tableColumn id="10" name="Params" dataDxfId="106"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="105"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="104"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="103"/>
-    <tableColumn id="5" name="EPOCH TIME (s)" dataDxfId="102"/>
-    <tableColumn id="6" name="TOTAL TIME (h)" dataDxfId="101"/>
-    <tableColumn id="11" name="GPU" dataDxfId="100"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEED" dataDxfId="108"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Layers" dataDxfId="107"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Params" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TEST_ACC" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TRAIN_ACC" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EPOCHS" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EPOCH TIME (s)" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TOTAL TIME (h)" dataDxfId="101"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="GPU" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="B4:J11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="19">
+  <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="18"/>
-    <tableColumn id="12" name="Layers" dataDxfId="17"/>
-    <tableColumn id="10" name="Params" dataDxfId="16"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="15"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="14"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="13"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="12"/>
-    <tableColumn id="6" name="TOTAL TIME (s)" dataDxfId="11"/>
-    <tableColumn id="11" name="GPU" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME (s)" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell21123" displayName="Tabell21123" ref="B14:J21" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="B14:J21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabell21123" displayName="Tabell21123" ref="B14:J21" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="B14:J21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="8"/>
-    <tableColumn id="12" name="Layers" dataDxfId="7"/>
-    <tableColumn id="10" name="Params" dataDxfId="6"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="5"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="4"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="3"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="2"/>
-    <tableColumn id="6" name="TOTAL TIME (h)" dataDxfId="1"/>
-    <tableColumn id="11" name="GPU" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SEED" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="Layers" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Params" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="TEST_ACC" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="TRAIN_ACC" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="EPOCHS" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="EPOCH TIME" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="TOTAL TIME (h)" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="GPU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabell2112428" displayName="Tabell2112428" ref="B20:J29" totalsRowShown="0" dataDxfId="99">
-  <autoFilter ref="B20:J29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabell2112428" displayName="Tabell2112428" ref="B20:J29" totalsRowShown="0" dataDxfId="99">
+  <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="98"/>
-    <tableColumn id="12" name="Layers" dataDxfId="97"/>
-    <tableColumn id="10" name="Params" dataDxfId="96"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="95"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="94"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="93"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="92"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="91"/>
-    <tableColumn id="11" name="GPU" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SEED" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Layers" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Params" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TEST_ACC" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TRAIN_ACC" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EPOCHS" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EPOCH TIME" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL TIME" dataDxfId="91"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GPU" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabell2112429" displayName="Tabell2112429" ref="B36:J45" totalsRowShown="0" dataDxfId="89">
-  <autoFilter ref="B36:J45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabell2112429" displayName="Tabell2112429" ref="B36:J45" totalsRowShown="0" dataDxfId="89">
+  <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="88"/>
-    <tableColumn id="12" name="Layers" dataDxfId="87"/>
-    <tableColumn id="10" name="Params" dataDxfId="86"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="85"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="84"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="83"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="82"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="81"/>
-    <tableColumn id="11" name="GPU" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SEED" dataDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Layers" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Params" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TEST_ACC" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TRAIN_ACC" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EPOCHS" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="EPOCH TIME" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="TOTAL TIME" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="GPU" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="79">
-  <autoFilter ref="B4:J11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabell211" displayName="Tabell211" ref="B4:J11" totalsRowShown="0" dataDxfId="79">
+  <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="78"/>
-    <tableColumn id="12" name="Layers" dataDxfId="77"/>
-    <tableColumn id="10" name="Params" dataDxfId="76"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="75"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="74"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="73"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="72"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="71"/>
-    <tableColumn id="11" name="GPU" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SEED" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Layers" dataDxfId="77"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Params" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TEST_ACC" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TRAIN_ACC" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="EPOCHS" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="EPOCH TIME" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="TOTAL TIME" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="GPU" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="69">
-  <autoFilter ref="B20:J29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabell21124" displayName="Tabell21124" ref="B20:J29" totalsRowShown="0" dataDxfId="69">
+  <autoFilter ref="B20:J29" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="68"/>
-    <tableColumn id="12" name="Layers" dataDxfId="67"/>
-    <tableColumn id="10" name="Params" dataDxfId="66"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="65"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="64"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="63"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="62"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="61"/>
-    <tableColumn id="11" name="GPU" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SEED" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Layers" dataDxfId="67"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Params" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TEST_ACC" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TRAIN_ACC" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="EPOCHS" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="EPOCH TIME" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="TOTAL TIME" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="GPU" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="59">
-  <autoFilter ref="B36:J45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabell2112426" displayName="Tabell2112426" ref="B36:J45" totalsRowShown="0" dataDxfId="59">
+  <autoFilter ref="B36:J45" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="58"/>
-    <tableColumn id="12" name="Layers" dataDxfId="57"/>
-    <tableColumn id="10" name="Params" dataDxfId="56"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="55"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="54"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="53"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="52"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="51"/>
-    <tableColumn id="11" name="GPU" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SEED" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Layers" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Params" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TEST_ACC" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TRAIN_ACC" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="EPOCHS" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="EPOCH TIME" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="TOTAL TIME" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="GPU" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="49">
-  <autoFilter ref="C5:K14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabell2112430" displayName="Tabell2112430" ref="C5:K14" totalsRowShown="0" dataDxfId="49">
+  <autoFilter ref="C5:K14" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="48"/>
-    <tableColumn id="12" name="Layers" dataDxfId="47"/>
-    <tableColumn id="10" name="Params" dataDxfId="46"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="45"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="44"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="43"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="42"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="41"/>
-    <tableColumn id="11" name="GPU" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SEED" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Layers" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Params" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="TEST_ACC" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TRAIN_ACC" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="EPOCHS" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="EPOCH TIME" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="TOTAL TIME" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="GPU" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="39">
-  <autoFilter ref="C21:K30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabell2112431" displayName="Tabell2112431" ref="C21:K30" totalsRowShown="0" dataDxfId="39">
+  <autoFilter ref="C21:K30" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="38"/>
-    <tableColumn id="12" name="Layers" dataDxfId="37"/>
-    <tableColumn id="10" name="Params" dataDxfId="36"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="35"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="34"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="33"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="32"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="31"/>
-    <tableColumn id="11" name="GPU" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SEED" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Layers" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Params" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TEST_ACC" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TRAIN_ACC" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="EPOCHS" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="EPOCH TIME" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="TOTAL TIME" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="GPU" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="C37:K46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="C37:K46" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="SEED" dataDxfId="28"/>
-    <tableColumn id="12" name="Layers" dataDxfId="27"/>
-    <tableColumn id="10" name="Params" dataDxfId="26"/>
-    <tableColumn id="2" name="TEST_ACC" dataDxfId="25"/>
-    <tableColumn id="3" name="TRAIN_ACC" dataDxfId="24"/>
-    <tableColumn id="4" name="EPOCHS" dataDxfId="23"/>
-    <tableColumn id="5" name="EPOCH TIME" dataDxfId="22"/>
-    <tableColumn id="6" name="TOTAL TIME" dataDxfId="21"/>
-    <tableColumn id="11" name="GPU" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -953,7 +969,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,9 +1002,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1021,6 +1054,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1196,25 +1246,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1553,7 +1603,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1564,7 +1614,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1575,12 +1625,12 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1620,7 +1670,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1631,7 +1681,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1642,7 +1692,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1653,7 +1703,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1664,7 +1714,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1675,7 +1725,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1686,7 +1736,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1697,7 +1747,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1720,23 +1770,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2207,9 +2257,38 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
@@ -2242,19 +2321,41 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="B37" s="2">
+        <v>41</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>103984</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="2">
+        <v>71</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="2">
+        <v>95</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2264,8 +2365,12 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="2">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2275,8 +2380,12 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="2">
+        <v>35</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2296,7 +2405,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2307,7 +2416,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2318,7 +2427,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2329,7 +2438,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2352,14 +2461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:K46"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
@@ -2771,23 +2880,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3031,12 +3140,12 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -3065,7 +3174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>41</v>
       </c>
@@ -3094,7 +3203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>95</v>
       </c>
@@ -3111,7 +3220,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -3126,7 +3235,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>35</v>
       </c>
@@ -3141,7 +3250,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3255,7 +3364,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3266,7 +3375,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3277,7 +3386,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3288,7 +3397,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3299,7 +3408,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3310,7 +3419,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3321,7 +3430,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3332,7 +3441,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3343,7 +3452,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3354,7 +3463,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B70725-3F7C-3948-8F9D-0A3A5EDEC7F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="6_{7039940C-286B-48B0-BE5E-FEEB92B7113D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CB7C2BC5-74E7-43ED-BB0A-E4ED42944523}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="11380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GATED" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="56">
   <si>
     <t>SEED</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>6213.1886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-norm, nn.Parameter(torch.rand(out_dim)*3+1) , torch.clamp(self.p,1,100), PATTERN, </t>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>Ej klar</t>
+  </si>
+  <si>
+    <t>V100</t>
   </si>
 </sst>
 </file>
@@ -747,36 +759,36 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME (s)" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME (s)" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabell21123" displayName="Tabell21123" ref="B14:J21" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabell21123" displayName="Tabell21123" ref="B14:J21" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="B14:J21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SEED" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="Layers" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Params" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="TEST_ACC" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="TRAIN_ACC" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="EPOCHS" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="EPOCH TIME" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="TOTAL TIME (h)" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="GPU" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SEED" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="Layers" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Params" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="TEST_ACC" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="TRAIN_ACC" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="EPOCHS" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="EPOCH TIME" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="TOTAL TIME (h)" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="GPU" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -909,18 +921,18 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="C37:K46" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1253,31 +1265,31 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" customWidth="1"/>
+    <col min="8" max="8" width="17.1328125" customWidth="1"/>
+    <col min="9" max="9" width="17.46484375" customWidth="1"/>
+    <col min="10" max="10" width="19.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="7">
         <v>41</v>
       </c>
@@ -1335,7 +1347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="7">
         <v>35</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="7">
         <v>12</v>
       </c>
@@ -1393,7 +1405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="7">
         <v>95</v>
       </c>
@@ -1422,7 +1434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1433,7 +1445,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1444,7 +1456,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1455,7 +1467,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1475,7 +1487,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1492,12 +1504,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1537,7 +1549,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1548,7 +1560,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1559,7 +1571,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1570,7 +1582,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1581,7 +1593,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1592,7 +1604,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1603,7 +1615,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1614,7 +1626,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1625,12 +1637,12 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1670,7 +1682,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1681,7 +1693,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1692,7 +1704,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1703,7 +1715,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1714,7 +1726,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1725,7 +1737,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1736,7 +1748,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1747,7 +1759,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1773,24 +1785,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" customWidth="1"/>
+    <col min="3" max="3" width="13.46484375" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.46484375" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -1816,12 +1828,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1850,7 +1862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>41</v>
       </c>
@@ -1880,7 +1892,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>53</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>76</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>12</v>
       </c>
@@ -1967,7 +1979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1978,7 +1990,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1998,7 +2010,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2015,7 +2027,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2026,7 +2038,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2037,12 +2049,12 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B21" s="2">
         <v>41</v>
       </c>
@@ -2100,7 +2112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B22" s="2">
         <v>95</v>
       </c>
@@ -2129,7 +2141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B23" s="2">
         <v>12</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B24" s="2">
         <v>35</v>
       </c>
@@ -2187,7 +2199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2198,7 +2210,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2209,7 +2221,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2220,7 +2232,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -2240,7 +2252,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2257,7 +2269,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -2286,12 +2298,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="2">
         <v>41</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38" s="2">
         <v>95</v>
       </c>
@@ -2364,7 +2376,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="2">
         <v>12</v>
       </c>
@@ -2379,7 +2391,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="2">
         <v>35</v>
       </c>
@@ -2394,7 +2406,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2405,7 +2417,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2416,7 +2428,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2427,7 +2439,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2438,7 +2450,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2462,20 +2474,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="C4:K46"/>
+  <dimension ref="C4:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -2504,7 +2516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2515,7 +2527,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2526,7 +2538,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2537,7 +2549,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2548,7 +2560,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2559,7 +2571,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2570,7 +2582,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2581,7 +2593,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2592,7 +2604,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2603,12 +2615,12 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2648,7 +2660,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2659,7 +2671,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2670,7 +2682,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2681,7 +2693,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2692,7 +2704,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2703,7 +2715,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2714,7 +2726,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2725,7 +2737,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2736,12 +2748,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -2770,51 +2782,116 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C38" s="2">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>110540</v>
+      </c>
+      <c r="F38" s="2">
+        <v>85.662999999999997</v>
+      </c>
+      <c r="G38" s="2">
+        <v>86.120500000000007</v>
+      </c>
+      <c r="H38" s="2">
+        <v>63</v>
+      </c>
+      <c r="I38" s="2">
+        <v>382.9778</v>
+      </c>
+      <c r="J38" s="2">
+        <v>24661.905999999999</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C39" s="2">
+        <v>35</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2">
+        <v>110540</v>
+      </c>
+      <c r="F39" s="2">
+        <v>85.691999999999993</v>
+      </c>
+      <c r="G39" s="2">
+        <v>86.033900000000003</v>
+      </c>
+      <c r="H39" s="2">
+        <v>57</v>
+      </c>
+      <c r="I39" s="2">
+        <v>386.4939</v>
+      </c>
+      <c r="J39" s="2">
+        <v>22573.454300000001</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C40" s="2">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>110540</v>
+      </c>
+      <c r="F40" s="2">
+        <v>85.64</v>
+      </c>
+      <c r="G40" s="2">
+        <v>85.933300000000003</v>
+      </c>
+      <c r="H40" s="2">
+        <v>59</v>
+      </c>
+      <c r="I40" s="2">
+        <v>288.84780000000001</v>
+      </c>
+      <c r="J40" s="2">
+        <v>23492.045300000002</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C41" s="2">
+        <v>95</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>110540</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2825,7 +2902,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2836,7 +2913,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2847,7 +2924,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2858,7 +2935,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2871,10 +2948,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2883,23 +2961,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="7" max="7" width="10.46484375" customWidth="1"/>
+    <col min="8" max="8" width="15.46484375" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -2926,16 +3004,16 @@
       </c>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -2965,7 +3043,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>41</v>
       </c>
@@ -2994,7 +3072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>95</v>
       </c>
@@ -3023,7 +3101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>12</v>
       </c>
@@ -3052,7 +3130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>35</v>
       </c>
@@ -3081,7 +3159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3092,7 +3170,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -3112,7 +3190,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3129,7 +3207,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3140,12 +3218,12 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -3174,7 +3252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <v>41</v>
       </c>
@@ -3203,7 +3281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
         <v>95</v>
       </c>
@@ -3220,7 +3298,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -3235,7 +3313,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B18" s="2">
         <v>35</v>
       </c>
@@ -3250,7 +3328,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3261,7 +3339,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -3281,7 +3359,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3298,7 +3376,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3309,7 +3387,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3320,7 +3398,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3331,7 +3409,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3342,7 +3420,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3353,7 +3431,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3364,7 +3442,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3375,7 +3453,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3386,7 +3464,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3397,7 +3475,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3408,7 +3486,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3419,7 +3497,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3430,7 +3508,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3441,7 +3519,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3452,7 +3530,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3463,7 +3541,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -2775,7 +2775,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -2774,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -2774,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resultat/Resultat.xlsx
+++ b/Resultat/Resultat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="46" documentId="6_{7039940C-286B-48B0-BE5E-FEEB92B7113D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CB7C2BC5-74E7-43ED-BB0A-E4ED42944523}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="6_{7039940C-286B-48B0-BE5E-FEEB92B7113D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8B2F23B2-3028-4B53-B1C8-FD172B8D40BE}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="55">
   <si>
     <t>SEED</t>
   </si>
@@ -193,10 +193,7 @@
     <t>P100</t>
   </si>
   <si>
-    <t>Ej klar</t>
-  </si>
-  <si>
-    <t>V100</t>
+    <t>5.6268h</t>
   </si>
 </sst>
 </file>
@@ -206,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +235,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -265,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,6 +298,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,36 +774,36 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabell2112" displayName="Tabell2112" ref="B4:J11" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="B4:J11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME (s)" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SEED" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Layers" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Params" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TEST_ACC" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TRAIN_ACC" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="EPOCHS" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="EPOCH TIME" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="TOTAL TIME (s)" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="GPU" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabell21123" displayName="Tabell21123" ref="B14:J21" totalsRowShown="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabell21123" displayName="Tabell21123" ref="B14:J21" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="B14:J21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SEED" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="Layers" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Params" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="TEST_ACC" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="TRAIN_ACC" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="EPOCHS" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="EPOCH TIME" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="TOTAL TIME (h)" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="GPU" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SEED" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="Layers" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Params" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="TEST_ACC" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="TRAIN_ACC" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="EPOCHS" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="EPOCH TIME" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="TOTAL TIME (h)" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="GPU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -921,18 +936,18 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabell2112433" displayName="Tabell2112433" ref="C37:K46" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="C37:K46" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SEED" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Layers" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Params" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TEST_ACC" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TRAIN_ACC" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="EPOCHS" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="EPOCH TIME" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="TOTAL TIME" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="GPU" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2474,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="C4:L46"/>
+  <dimension ref="C4:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2748,12 +2763,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -2782,7 +2797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C38" s="2">
         <v>41</v>
       </c>
@@ -2811,7 +2826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C39" s="2">
         <v>35</v>
       </c>
@@ -2840,7 +2855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C40" s="2">
         <v>12</v>
       </c>
@@ -2869,7 +2884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C41" s="2">
         <v>95</v>
       </c>
@@ -2879,19 +2894,26 @@
       <c r="E41" s="2">
         <v>110540</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="F41" s="11">
+        <v>85.686099999999996</v>
+      </c>
+      <c r="G41" s="12">
+        <v>85.858500000000006</v>
+      </c>
+      <c r="H41" s="2">
+        <v>51</v>
+      </c>
+      <c r="I41" s="12">
+        <v>386.565</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="K41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2902,7 +2924,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2913,7 +2935,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2924,7 +2946,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2935,7 +2957,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
